--- a/doc/designFlow.xlsx
+++ b/doc/designFlow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23232" windowHeight="14328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23235" windowHeight="14325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$198</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$3:$A$194</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="591">
   <si>
     <t>CameraCharacteristics</t>
   </si>
@@ -1950,482 +1950,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>public static finalKey&lt;int[]&gt;</t>
-  </si>
-  <si>
-    <t>List of aberration correction modes for android.colorCorrection.aberrationModethat are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of auto-exposure antibanding modes for android.control.aeAntibandingMode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of auto-exposure modes for android.control.aeMode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Range[]&lt;Integer&gt;&gt;</t>
-  </si>
-  <si>
-    <t>List of frame rate ranges for android.control.aeTargetFpsRangesupported by this camera device.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Range&lt;Integer&gt;&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>Maximum and minimum exposure compensation values for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>android.control.aeExposureCompensation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, in counts of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>android.control.aeCompensationStep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, that are supported by this camera device.</t>
-    </r>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Rational&gt;</t>
-  </si>
-  <si>
-    <t>Smallest step by which the exposure compensation can be changed.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Boolean&gt;</t>
-  </si>
-  <si>
-    <t>List of auto-focus (AF) modes for android.control.afMode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of color effects for android.control.effectMode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of control modes for android.control.mode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of scene modes for android.control.sceneMode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of video stabilization modes for android.control.videoStabilizationModethat are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of auto-white-balance modes for android.control.awbModethat are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Integer&gt;</t>
-  </si>
-  <si>
-    <t>The maximum number of metering regions that can be used by the auto-exposure (AE) routine.</t>
-  </si>
-  <si>
-    <t>The maximum number of metering regions that can be used by the auto-focus (AF) routine.</t>
-  </si>
-  <si>
-    <t>The maximum number of metering regions that can be used by the auto-white balance (AWB) routine.</t>
-  </si>
-  <si>
-    <t>Range of boosts for android.control.postRawSensitivityBoostsupported by this camera device.</t>
-  </si>
-  <si>
-    <t>Indicates whether a capture request may target both a DEPTH16 / DEPTH_POINT_CLOUD output, and normal color outputs (such as YUV_420_888, JPEG, or RAW) simultaneously.</t>
-  </si>
-  <si>
-    <t>List of edge enhancement modes for android.edge.mode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>Whether this camera device has a flash unit.</t>
-  </si>
-  <si>
-    <t>List of hot pixel correction modes for android.hotPixel.modethat are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>Generally classifies the overall set of the camera device functionality.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Size[]&gt;</t>
-  </si>
-  <si>
-    <t>List of JPEG thumbnail sizes for android.jpeg.thumbnailSize supported by this camera device.</t>
-  </si>
-  <si>
-    <t>Direction the camera faces relative to device screen.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;float[]&gt;</t>
-  </si>
-  <si>
-    <t>List of aperture size values for android.lens.aperture that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of neutral density filter values for android.lens.filterDensitythat are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of focal lengths for android.lens.focalLength that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of optical image stabilization (OIS) modes forandroid.lens.opticalStabilizationModethat are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>The lens focus distance calibration quality.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Float&gt;</t>
-  </si>
-  <si>
-    <t>Hyperfocal distance for this lens.</t>
-  </si>
-  <si>
-    <t>Shortest distance from frontmost surface of the lens that can be brought into sharp focus.</t>
-  </si>
-  <si>
-    <t>The parameters for this camera device's intrinsic calibration.</t>
-  </si>
-  <si>
-    <t>The orientation of the camera relative to the sensor coordinate system.</t>
-  </si>
-  <si>
-    <t>Position of the camera optical center.</t>
-  </si>
-  <si>
-    <t>The correction coefficients to correct for this camera device's radial and tangential lens distortion.</t>
-  </si>
-  <si>
-    <t>List of noise reduction modes for android.noiseReduction.mode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>The maximal camera capture pipeline stall (in unit of frame count) introduced by a reprocess capture request.</t>
-  </si>
-  <si>
-    <t>List of capabilities that this camera device advertises as fully supporting.</t>
-  </si>
-  <si>
-    <t>The maximum numbers of any type of input streams that can be configured and used simultaneously by a camera device.</t>
-  </si>
-  <si>
-    <t>The maximum numbers of different types of output streams that can be configured and used simultaneously by a camera device for any processed (but not-stalling) formats.</t>
-  </si>
-  <si>
-    <t>The maximum numbers of different types of output streams that can be configured and used simultaneously by a camera device for any processed (and stalling) formats.</t>
-  </si>
-  <si>
-    <r>
-      <t>The maximum numbers of different types of output streams that can be configured and used simultaneously by a camera device for any </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RAW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t> formats.</t>
-    </r>
-  </si>
-  <si>
-    <t>Defines how many sub-components a result will be composed of.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Byte&gt;</t>
-  </si>
-  <si>
-    <t>Specifies the number of maximum pipeline stages a frame has to go through from when it's exposed to when it's available to the framework.</t>
-  </si>
-  <si>
-    <t>The maximum ratio between both active area width and crop region width, and active area height and crop region height, for android.scaler.cropRegion.</t>
-  </si>
-  <si>
-    <t>The crop type that this camera device supports.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;StreamConfigurationMap&gt;</t>
-  </si>
-  <si>
-    <t>The available stream configurations that this camera device supports; also includes the minimum frame durations and the stall durations for each format/size combination.</t>
-  </si>
-  <si>
-    <t>List of sensor test pattern modes for android.sensor.testPatternModesupported by this camera device.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;BlackLevelPattern&gt;</t>
-  </si>
-  <si>
-    <t>A fixed black level offset for each of the color filter arrangement (CFA) mosaic channels.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;ColorSpaceTransform&gt;</t>
-  </si>
-  <si>
-    <t>A per-device calibration transform matrix that maps from the reference sensor colorspace to the actual device sensor colorspace.</t>
-  </si>
-  <si>
-    <t>A per-device calibration transform matrix that maps from the reference sensor colorspace to the actual device sensor colorspace (this is the colorspace of the raw buffer data).</t>
-  </si>
-  <si>
-    <t>A matrix that transforms color values from CIE XYZ color space to reference sensor color space.</t>
-  </si>
-  <si>
-    <t>A matrix that transforms white balanced camera colors from the reference sensor colorspace to the CIE XYZ colorspace with a D50 whitepoint.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Rect&gt;</t>
-  </si>
-  <si>
-    <t>The area of the image sensor which corresponds to active pixels after any geometric distortion correction has been applied.</t>
-  </si>
-  <si>
-    <t>The arrangement of color filters on sensor; represents the colors in the top-left 2x2 section of the sensor, in reading order.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Range&lt;Long&gt;&gt;</t>
-  </si>
-  <si>
-    <t>The range of image exposure times for android.sensor.exposureTimesupported by this camera device.</t>
-  </si>
-  <si>
-    <t>Whether the RAW images output from this camera device are subject to lens shading correction.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Long&gt;</t>
-  </si>
-  <si>
-    <t>The maximum possible frame duration (minimum frame rate) for android.sensor.frameDuration that is supported this camera device.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;SizeF&gt;</t>
-  </si>
-  <si>
-    <t>The physical dimensions of the full pixel array.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Size&gt;</t>
-  </si>
-  <si>
-    <t>Dimensions of the full pixel array, possibly including black calibration pixels.</t>
-  </si>
-  <si>
-    <t>The area of the image sensor which corresponds to active pixels prior to the application of any geometric distortion correction.</t>
-  </si>
-  <si>
-    <t>Range of sensitivities for android.sensor.sensitivity supported by this camera device.</t>
-  </si>
-  <si>
-    <t>The time base source for sensor capture start timestamps.</t>
-  </si>
-  <si>
-    <t>Maximum raw value output by sensor.</t>
-  </si>
-  <si>
-    <t>Maximum sensitivity that is implemented purely through analog gain.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;Rect[]&gt;</t>
-  </si>
-  <si>
-    <t>List of disjoint rectangles indicating the sensor optically shielded black pixel regions.</t>
-  </si>
-  <si>
-    <t>Clockwise angle through which the output image needs to be rotated to be upright on the device screen in its native orientation.</t>
-  </si>
-  <si>
-    <r>
-      <t>The standard reference illuminant used as the scene light source when calculating the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>android.sensor.colorTransform1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>android.sensor.calibrationTransform1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>android.sensor.forwardMatrix1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>matrices.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The standard reference illuminant used as the scene light source when calculating the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>android.sensor.colorTransform2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>android.sensor.calibrationTransform2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>android.sensor.forwardMatrix2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>matrices.</t>
-    </r>
-  </si>
-  <si>
-    <t>List of lens shading modes for android.shading.mode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of face detection modes for android.statistics.faceDetectMode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;boolean[]&gt;</t>
-  </si>
-  <si>
-    <t>List of hot pixel map output modes for android.statistics.hotPixelMapModethat are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>List of lens shading map output modes for android.statistics.lensShadingMapModethat are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>The maximum number of simultaneously detectable faces.</t>
-  </si>
-  <si>
-    <t>The maximum number of frames that can occur after a request (different than the previous) has been submitted, and before the result's state becomes synchronized.</t>
-  </si>
-  <si>
-    <t>List of tonemapping modes for android.tonemap.mode that are supported by this camera device.</t>
-  </si>
-  <si>
-    <t>Maximum number of supported points in the tonemap curve that can be used for android.tonemap.curve.</t>
-  </si>
-  <si>
     <t>Whether the camera device supports android.control.aeLock Devices with MANUAL_SENSOR capability or BURST_CAPTURE capability will always list true.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2464,9 +1988,6 @@
     <t>Whether the camera device will trigger a precapture metering sequence when it processes this request.</t>
   </si>
   <si>
-    <t>List of metering areas to use for auto-exposure adjustment.</t>
-  </si>
-  <si>
     <t>Range over which the auto-exposure routine can adjust the capture frame rate to maintain good exposure.</t>
   </si>
   <si>
@@ -2479,9 +2000,6 @@
     <t>Whether the camera device will trigger autofocus for this request.</t>
   </si>
   <si>
-    <t>Whether auto-white balance (AWB) is currently locked to its latest calculated values.</t>
-  </si>
-  <si>
     <t>Whether auto-white balance (AWB) is currently setting the color transform fields, and what its illumination target is.</t>
   </si>
   <si>
@@ -2593,9 +2111,6 @@
     <t>BLACK_LEVEL_LOCK</t>
   </si>
   <si>
-    <t>public static finalKey&lt;RggbChannelVector&gt;</t>
-  </si>
-  <si>
     <t>COLOR_CORRECTION_GAINS</t>
   </si>
   <si>
@@ -2608,9 +2123,6 @@
     <t>CONTROL_AE_PRECAPTURE_TRIGGER</t>
   </si>
   <si>
-    <t>public static finalKey&lt;MeteringRectangle[]&gt;</t>
-  </si>
-  <si>
     <t>CONTROL_AF_TRIGGER</t>
   </si>
   <si>
@@ -2629,9 +2141,6 @@
     <t>FLASH_MODE</t>
   </si>
   <si>
-    <t>public static finalKey&lt;Location&gt;</t>
-  </si>
-  <si>
     <t>JPEG_GPS_LOCATION</t>
   </si>
   <si>
@@ -2651,9 +2160,6 @@
   </si>
   <si>
     <t>SENSOR_TEST_PATTERN_DATA</t>
-  </si>
-  <si>
-    <t>public static finalKey&lt;TonemapCurve&gt;</t>
   </si>
   <si>
     <t>TONEMAP_GAMMA</t>
@@ -2702,12 +2208,427 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>List of color effects for android.control.effectMode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum number of metering regions that can be used by the auto-focus (AF) routine.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum number of metering regions that can be used by the auto-white balance (AWB) routine.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of edge enhancement modes for android.edge.mode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The lens focus distance calibration quality.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortest distance from frontmost surface of the lens that can be brought into sharp focus.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The correction coefficients to correct for this camera device's radial and tangential lens distortion.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of noise reduction modes for android.noiseReduction.mode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of capabilities that this camera device advertises as fully supporting.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum numbers of different types of output streams that can be configured and used simultaneously by a camera device for any processed (and stalling) formats.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defines how many sub-components a result will be composed of.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The crop type that this camera device supports.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of sensor test pattern modes for android.sensor.testPatternModesupported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A per-device calibration transform matrix that maps from the reference sensor colorspace to the actual device sensor colorspace (this is the colorspace of the raw buffer data).</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A matrix that transforms color values from CIE XYZ color space to reference sensor color space.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A matrix that transforms white balanced camera colors from the reference sensor colorspace to the CIE XYZ colorspace with a D50 whitepoint.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The area of the image sensor which corresponds to active pixels after any geometric distortion correction has been applied.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The range of image exposure times for android.sensor.exposureTimesupported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The physical dimensions of the full pixel array.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The area of the image sensor which corresponds to active pixels prior to the application of any geometric distortion correction.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range of sensitivities for android.sensor.sensitivity supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The time base source for sensor capture start timestamps.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum raw value output by sensor.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum sensitivity that is implemented purely through analog gain.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of disjoint rectangles indicating the sensor optically shielded black pixel regions.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clockwise angle through which the output image needs to be rotated to be upright on the device screen in its native orientation.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of lens shading modes for android.shading.mode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of face detection modes for android.statistics.faceDetectMode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of hot pixel map output modes for android.statistics.hotPixelMapModethat are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of lens shading map output modes for android.statistics.lensShadingMapModethat are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum number of simultaneously detectable faces.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of tonemapping modes for android.tonemap.mode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The standard reference illuminant used as the scene light source when calculating the android.sensor.colorTransform1,android.sensor.calibrationTransform1, and android.sensor.forwardMatrix1matrices.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The standard reference illuminant used as the scene light source when calculating the android.sensor.colorTransform2,android.sensor.calibrationTransform2, and android.sensor.forwardMatrix2matrices.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum numbers of different types of output streams that can be configured and used simultaneously by a camera device for any RAW formats.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum and minimum exposure compensation values forandroid.control.aeExposureCompensation, in counts of android.control.aeCompensationStep, that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static final Key&lt;int[]&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;int[]&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static final Key&lt;Range[]&lt;Integer&gt;&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Range&lt;Integer&gt;&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Rational&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Boolean&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Size[]&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;float[]&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Float&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Byte&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;StreamConfigurationMap&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;BlackLevelPattern&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;ColorSpaceTransform&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Rect&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Range&lt;Long&gt;&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Long&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;SizeF&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Size&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Rect[]&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;boolean[]&gt;</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOT_PIXEL_AVAILABLE_HOT_PIXEL_MODES</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of aberration correction modes for android.colorCorrection.aberrationModethat are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of auto-exposure antibanding modes for android.control.aeAntibandingMode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of auto-exposure modes for android.control.aeMode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of frame rate ranges for android.control.aeTargetFpsRangesupported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallest step by which the exposure compensation can be changed.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of auto-focus (AF) modes for android.control.afMode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of control modes for android.control.mode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of scene modes for android.control.sceneMode that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of video stabilization modes for android.control.videoStabilizationModethat are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of auto-white-balance modes for android.control.awbModethat are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum number of metering regions that can be used by the auto-exposure (AE) routine.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range of boosts for android.control.postRawSensitivityBoostsupported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indicates whether a capture request may target both a DEPTH16 / DEPTH_POINT_CLOUD output, and normal color outputs (such as YUV_420_888, JPEG, or RAW) simultaneously.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether this camera device has a flash unit.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of hot pixel correction modes for android.hotPixel.modethat are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generally classifies the overall set of the camera device functionality.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of JPEG thumbnail sizes for android.jpeg.thumbnailSize supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction the camera faces relative to device screen.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of aperture size values for android.lens.aperture that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of neutral density filter values for android.lens.filterDensitythat are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of focal lengths for android.lens.focalLength that are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List of optical image stabilization (OIS) modes forandroid.lens.opticalStabilizationModethat are supported by this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperfocal distance for this lens.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The parameters for this camera device's intrinsic calibration.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The orientation of the camera relative to the sensor coordinate system.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position of the camera optical center.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximal camera capture pipeline stall (in unit of frame count) introduced by a reprocess capture request.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum numbers of any type of input streams that can be configured and used simultaneously by a camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum numbers of different types of output streams that can be configured and used simultaneously by a camera device for any processed (but not-stalling) formats.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specifies the number of maximum pipeline stages a frame has to go through from when it's exposed to when it's available to the framework.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum ratio between both active area width and crop region width, and active area height and crop region height, for android.scaler.cropRegion.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The available stream configurations that this camera device supports; also includes the minimum frame durations and the stall durations for each format/size combination.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A fixed black level offset for each of the color filter arrangement (CFA) mosaic channels.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A per-device calibration transform matrix that maps from the reference sensor colorspace to the actual device sensor colorspace.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The arrangement of color filters on sensor; represents the colors in the top-left 2x2 section of the sensor, in reading order.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether the RAW images output from this camera device are subject to lens shading correction.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum possible frame duration (minimum frame rate) for android.sensor.frameDuration that is supported this camera device.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimensions of the full pixel array, possibly including black calibration pixels.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum number of frames that can occur after a request (different than the previous) has been submitted, and before the result's state becomes synchronized.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum number of supported points in the tonemap curve that can be used for android.tonemap.curve.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraCharacteristics keys map</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaptureRequest keys map</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static final Key&lt;RggbChannelVector&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;MeteringRectangle[]&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;Location&gt;</t>
+  </si>
+  <si>
+    <t>public static final Key&lt;TonemapCurve&gt;</t>
+  </si>
+  <si>
+    <t>List of metering areas to use for auto-exposure adjustment.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether auto-white balance (AWB) is currently locked to its latest calculated values.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2809,7 +2730,30 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="方正大黑简体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
@@ -2818,12 +2762,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2878,8 +2823,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2939,8 +2901,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2971,8 +2942,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3030,317 +3004,350 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="40% - 着色 1" xfId="9" builtinId="31"/>
     <cellStyle name="40% - 着色 2" xfId="5" builtinId="35"/>
     <cellStyle name="40% - 着色 3" xfId="1" builtinId="39"/>
@@ -3351,8 +3358,76 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="7" builtinId="8"/>
     <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="着色 1" xfId="10" builtinId="29"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3363,6 +3438,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:C57" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" headerRowCellStyle="着色 1">
+  <autoFilter ref="A2:C57"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="类型" dataDxfId="3"/>
+    <tableColumn id="2" name="key" dataDxfId="2" dataCellStyle="超链接"/>
+    <tableColumn id="3" name="注释" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3625,21 +3712,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.59765625" style="95" customWidth="1"/>
-    <col min="2" max="2" width="33.796875" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.09765625" style="89" customWidth="1"/>
-    <col min="4" max="4" width="29.8984375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="25" style="91" customWidth="1"/>
-    <col min="6" max="16384" width="8.8984375" style="65"/>
+    <col min="1" max="1" width="51.625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="25" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="34.15" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3656,139 +3743,139 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="82" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="92"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="92"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="117" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="92" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="93"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="93"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="117" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="93" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="93"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="71.400000000000006" customHeight="1">
+      <c r="D13" s="98"/>
+      <c r="E13" s="93"/>
+    </row>
+    <row r="14" spans="1:5" ht="71.45" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -3798,14 +3885,14 @@
       <c r="C14" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="20" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -3815,10 +3902,10 @@
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="20" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3832,14 +3919,14 @@
       <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="73.2">
+    <row r="17" spans="1:5" ht="70.5">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -3849,520 +3936,520 @@
       <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="20" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="94" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="94"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="94"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="94"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="94"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
       <c r="C23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="D23" s="99"/>
+      <c r="E23" s="94"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A24" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="119" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="95" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+    <row r="25" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="95"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="95"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="95"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="95"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="95"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="95"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.95" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="95"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.899999999999999" customHeight="1">
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A33" s="92" t="s">
+      <c r="D32" s="100"/>
+      <c r="E32" s="95"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A33" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="82" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="92"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="62" t="s">
+      <c r="A34" s="115"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="82"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="92"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="62" t="s">
+      <c r="A35" s="115"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="82"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="92"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="62" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="82"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="120" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="91" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="91"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="91"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="91"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="120"/>
       <c r="C43" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="120"/>
+      <c r="B44" s="120"/>
       <c r="C44" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="91"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="120"/>
+      <c r="B45" s="120"/>
       <c r="C45" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="91"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="120"/>
       <c r="C46" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="91"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="91"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="91"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="91"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="120"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="91"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="120"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="91"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="120"/>
+      <c r="B52" s="120"/>
       <c r="C52" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="91"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="120"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="32"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="91"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="120"/>
+      <c r="B54" s="120"/>
       <c r="C54" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="91"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="120"/>
+      <c r="B55" s="120"/>
       <c r="C55" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
-    </row>
-    <row r="56" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A56" s="92" t="s">
+      <c r="D55" s="101"/>
+      <c r="E55" s="91"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A56" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" s="82" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="92"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="62" t="s">
+      <c r="A57" s="115"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="64"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="82"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="106" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="80" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="106"/>
+      <c r="B59" s="106"/>
       <c r="C59" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="80"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="36"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="80"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="106"/>
       <c r="C61" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="80"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="106"/>
+      <c r="B62" s="106"/>
       <c r="C62" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="36"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="80"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="106"/>
+      <c r="B63" s="106"/>
       <c r="C63" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="36"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="80"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="106"/>
+      <c r="B64" s="106"/>
       <c r="C64" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="80"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="106"/>
+      <c r="B65" s="106"/>
       <c r="C65" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="36"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="80"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="106"/>
       <c r="C66" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="36"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="80"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D67" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="69" t="s">
+      <c r="E67" s="33" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.8">
+    <row r="68" spans="1:5" ht="27">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -4379,7 +4466,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="28.8">
+    <row r="69" spans="1:5" ht="27">
       <c r="A69" s="3" t="s">
         <v>100</v>
       </c>
@@ -4396,7 +4483,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.8">
+    <row r="70" spans="1:5" ht="27">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -4413,227 +4500,227 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.8">
-      <c r="A71" s="93" t="s">
+    <row r="71" spans="1:5" ht="30">
+      <c r="A71" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="D71" s="71" t="s">
+      <c r="C71" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="D71" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E71" s="69" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="44.4">
-      <c r="A72" s="93" t="s">
+      <c r="E71" s="33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.5">
+      <c r="A72" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="68"/>
-      <c r="E72" s="69" t="s">
+      <c r="D72" s="32"/>
+      <c r="E72" s="33" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="72" t="s">
+      <c r="D73" s="32"/>
+      <c r="E73" s="81" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="92"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="62" t="s">
+      <c r="A74" s="115"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="64"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="82"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="92"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="62" t="s">
+      <c r="A75" s="115"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="64"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="82"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="92"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="62" t="s">
+      <c r="A76" s="115"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D76" s="68"/>
-      <c r="E76" s="64"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="C77" s="67" t="s">
+      <c r="C77" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="E77" s="73" t="s">
+      <c r="E77" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78" s="66" t="s">
+      <c r="A78" s="115" t="s">
+        <v>540</v>
+      </c>
+      <c r="B78" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D78" s="63" t="s">
+      <c r="D78" s="97" t="s">
         <v>401</v>
       </c>
-      <c r="E78" s="72" t="s">
+      <c r="E78" s="81" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="92"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="62" t="s">
+      <c r="A79" s="115"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="64"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="82"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="92"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="62" t="s">
+      <c r="A80" s="115"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="63"/>
-      <c r="E80" s="64"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="82"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="105" t="s">
         <v>309</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D81" s="75" t="s">
+      <c r="D81" s="83" t="s">
         <v>311</v>
       </c>
-      <c r="E81" s="72" t="s">
+      <c r="E81" s="81" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="92"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="62" t="s">
+      <c r="A82" s="115"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="64"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="82"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="92"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="62" t="s">
+      <c r="A83" s="115"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="76"/>
-      <c r="E83" s="64"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="82"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="92"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="62" t="s">
+      <c r="A84" s="115"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D84" s="77"/>
-      <c r="E84" s="64"/>
-    </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="93" t="s">
+      <c r="D84" s="85"/>
+      <c r="E84" s="82"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C85" s="67" t="s">
+      <c r="C85" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="69" t="s">
+      <c r="E85" s="33" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="111" t="s">
         <v>309</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D86" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="E86" s="47" t="s">
+      <c r="E86" s="89" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="41"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="112"/>
+      <c r="B87" s="111"/>
       <c r="C87" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="76"/>
-      <c r="E87" s="39"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="90"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="41"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="112"/>
+      <c r="B88" s="111"/>
       <c r="C88" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D88" s="77"/>
-      <c r="E88" s="39"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="90"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="13" t="s">
@@ -4645,10 +4732,10 @@
       <c r="C89" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E89" s="45" t="s">
+      <c r="E89" s="25" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4662,10 +4749,10 @@
       <c r="C90" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E90" s="45" t="s">
+      <c r="E90" s="25" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4679,75 +4766,75 @@
       <c r="C91" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="45" t="s">
+      <c r="E91" s="25" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="112" t="s">
         <v>144</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D92" s="46" t="s">
+      <c r="D92" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="89" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="41"/>
-      <c r="B93" s="41"/>
+      <c r="A93" s="112"/>
+      <c r="B93" s="112"/>
       <c r="C93" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D93" s="77"/>
-      <c r="E93" s="39"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="90"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="113" t="s">
         <v>320</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="D94" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="47" t="s">
+      <c r="E94" s="89" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="41"/>
-      <c r="B95" s="49"/>
+      <c r="A95" s="112"/>
+      <c r="B95" s="114"/>
       <c r="C95" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D95" s="42"/>
-      <c r="E95" s="39"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="90"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="41"/>
-      <c r="B96" s="78"/>
+      <c r="A96" s="112"/>
+      <c r="B96" s="69"/>
       <c r="C96" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="42"/>
-      <c r="E96" s="39"/>
-    </row>
-    <row r="97" spans="1:5" ht="28.8">
+      <c r="D96" s="103"/>
+      <c r="E96" s="90"/>
+    </row>
+    <row r="97" spans="1:5" ht="30">
       <c r="A97" s="13" t="s">
         <v>152</v>
       </c>
@@ -4757,14 +4844,14 @@
       <c r="C97" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D97" s="38" t="s">
+      <c r="D97" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E97" s="45" t="s">
+      <c r="E97" s="25" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28.8">
+    <row r="98" spans="1:5" ht="27">
       <c r="A98" s="13" t="s">
         <v>155</v>
       </c>
@@ -4774,10 +4861,10 @@
       <c r="C98" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D98" s="38" t="s">
+      <c r="D98" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E98" s="45" t="s">
+      <c r="E98" s="25" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4791,14 +4878,14 @@
       <c r="C99" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D99" s="38" t="s">
+      <c r="D99" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="E99" s="45" t="s">
+      <c r="E99" s="25" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.8">
+    <row r="100" spans="1:5" ht="27">
       <c r="A100" s="13" t="s">
         <v>160</v>
       </c>
@@ -4808,10 +4895,10 @@
       <c r="C100" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D100" s="38" t="s">
+      <c r="D100" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="E100" s="45" t="s">
+      <c r="E100" s="25" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4825,14 +4912,14 @@
       <c r="C101" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="38" t="s">
+      <c r="D101" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="E101" s="22" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="28.8">
+    <row r="102" spans="1:5" ht="27">
       <c r="A102" s="13" t="s">
         <v>162</v>
       </c>
@@ -4842,424 +4929,424 @@
       <c r="C102" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D102" s="38" t="s">
+      <c r="D102" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="E102" s="40" t="s">
+      <c r="E102" s="22" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="92" t="s">
+      <c r="A103" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="66" t="s">
+      <c r="B103" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D103" s="79" t="s">
+      <c r="D103" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="E103" s="72" t="s">
+      <c r="E103" s="81" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="92"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="62" t="s">
+      <c r="A104" s="115"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D104" s="79"/>
-      <c r="E104" s="64"/>
+      <c r="D104" s="104"/>
+      <c r="E104" s="82"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="92"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="62" t="s">
+      <c r="A105" s="115"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D105" s="79"/>
-      <c r="E105" s="64"/>
+      <c r="D105" s="104"/>
+      <c r="E105" s="82"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="92"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="62" t="s">
+      <c r="A106" s="115"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D106" s="79"/>
-      <c r="E106" s="64"/>
+      <c r="D106" s="104"/>
+      <c r="E106" s="82"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="92"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="62" t="s">
+      <c r="A107" s="115"/>
+      <c r="B107" s="96"/>
+      <c r="C107" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D107" s="79"/>
-      <c r="E107" s="64"/>
-    </row>
-    <row r="108" spans="1:5" ht="43.2">
-      <c r="A108" s="93" t="s">
+      <c r="D107" s="104"/>
+      <c r="E107" s="82"/>
+    </row>
+    <row r="108" spans="1:5" ht="40.5">
+      <c r="A108" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B108" s="67" t="s">
+      <c r="B108" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="D108" s="80" t="s">
+      <c r="D108" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="E108" s="73" t="s">
+      <c r="E108" s="36" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="92" t="s">
+      <c r="A109" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="C109" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D109" s="68" t="s">
+      <c r="D109" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E109" s="72" t="s">
+      <c r="E109" s="81" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="92"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="81" t="s">
+      <c r="A110" s="115"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D110" s="68" t="s">
+      <c r="D110" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E110" s="64"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="92"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="81" t="s">
+      <c r="E110" s="82"/>
+    </row>
+    <row r="111" spans="1:5" ht="30">
+      <c r="A111" s="115"/>
+      <c r="B111" s="105"/>
+      <c r="C111" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D111" s="68" t="s">
+      <c r="D111" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E111" s="64"/>
+      <c r="E111" s="82"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="92"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="62" t="s">
+      <c r="A112" s="115"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D112" s="68" t="s">
+      <c r="D112" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E112" s="64"/>
+      <c r="E112" s="82"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="92"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="62" t="s">
+      <c r="A113" s="115"/>
+      <c r="B113" s="105"/>
+      <c r="C113" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D113" s="68" t="s">
+      <c r="D113" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E113" s="64"/>
+      <c r="E113" s="82"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="92"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="62" t="s">
+      <c r="A114" s="115"/>
+      <c r="B114" s="105"/>
+      <c r="C114" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D114" s="68" t="s">
+      <c r="D114" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E114" s="64"/>
+      <c r="E114" s="82"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="92"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="62" t="s">
+      <c r="A115" s="115"/>
+      <c r="B115" s="105"/>
+      <c r="C115" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D115" s="68" t="s">
+      <c r="D115" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E115" s="64"/>
+      <c r="E115" s="82"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="92"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="62" t="s">
+      <c r="A116" s="115"/>
+      <c r="B116" s="105"/>
+      <c r="C116" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D116" s="68" t="s">
+      <c r="D116" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E116" s="64"/>
+      <c r="E116" s="82"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="92"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="62" t="s">
+      <c r="A117" s="115"/>
+      <c r="B117" s="105"/>
+      <c r="C117" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D117" s="68" t="s">
+      <c r="D117" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E117" s="64"/>
-    </row>
-    <row r="118" spans="1:5" ht="28.8">
-      <c r="A118" s="92"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="62" t="s">
+      <c r="E117" s="82"/>
+    </row>
+    <row r="118" spans="1:5" ht="30">
+      <c r="A118" s="115"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D118" s="68" t="s">
+      <c r="D118" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E118" s="64"/>
-    </row>
-    <row r="119" spans="1:5" ht="28.8">
-      <c r="A119" s="93" t="s">
+      <c r="E118" s="82"/>
+    </row>
+    <row r="119" spans="1:5" ht="27">
+      <c r="A119" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B119" s="67" t="s">
+      <c r="B119" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="C119" s="67" t="s">
+      <c r="C119" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D119" s="80" t="s">
+      <c r="D119" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E119" s="73" t="s">
+      <c r="E119" s="36" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="43.2">
-      <c r="A120" s="93" t="s">
+    <row r="120" spans="1:5" ht="40.5">
+      <c r="A120" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="B120" s="67" t="s">
+      <c r="B120" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="C120" s="67" t="s">
+      <c r="C120" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="D120" s="68" t="s">
+      <c r="D120" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E120" s="73" t="s">
+      <c r="E120" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="43.8">
-      <c r="A121" s="93" t="s">
+    <row r="121" spans="1:5" ht="42">
+      <c r="A121" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="B121" s="67" t="s">
+      <c r="B121" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="C121" s="67" t="s">
+      <c r="C121" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D121" s="68" t="s">
+      <c r="D121" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="69" t="s">
+      <c r="E121" s="33" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="43.8">
-      <c r="A122" s="93" t="s">
+    <row r="122" spans="1:5" ht="42">
+      <c r="A122" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="B122" s="67" t="s">
+      <c r="B122" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="C122" s="67" t="s">
+      <c r="C122" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D122" s="68" t="s">
+      <c r="D122" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="69" t="s">
+      <c r="E122" s="33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="28.8">
-      <c r="A123" s="93" t="s">
+    <row r="123" spans="1:5" ht="27">
+      <c r="A123" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B123" s="67" t="s">
+      <c r="B123" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="C123" s="67" t="s">
+      <c r="C123" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D123" s="68" t="s">
+      <c r="D123" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="E123" s="73" t="s">
+      <c r="E123" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="28.8">
-      <c r="A124" s="93" t="s">
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="C124" s="70" t="s">
+      <c r="C124" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="D124" s="68" t="s">
+      <c r="D124" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E124" s="73" t="s">
+      <c r="E124" s="36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="93" t="s">
+      <c r="A125" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B125" s="82" t="s">
+      <c r="B125" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="C125" s="67" t="s">
+      <c r="C125" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D125" s="68" t="s">
+      <c r="D125" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="E125" s="73" t="s">
+      <c r="E125" s="36" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="92" t="s">
+      <c r="A126" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="C126" s="62" t="s">
+      <c r="C126" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D126" s="75" t="s">
+      <c r="D126" s="83" t="s">
         <v>311</v>
       </c>
-      <c r="E126" s="72" t="s">
+      <c r="E126" s="81" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="92"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="62" t="s">
+      <c r="A127" s="115"/>
+      <c r="B127" s="105"/>
+      <c r="C127" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D127" s="77"/>
-      <c r="E127" s="64"/>
-    </row>
-    <row r="128" spans="1:5" ht="43.2">
-      <c r="A128" s="93" t="s">
+      <c r="D127" s="85"/>
+      <c r="E127" s="82"/>
+    </row>
+    <row r="128" spans="1:5" ht="40.5">
+      <c r="A128" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B128" s="67" t="s">
+      <c r="B128" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="C128" s="67" t="s">
+      <c r="C128" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="D128" s="68" t="s">
+      <c r="D128" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="73" t="s">
+      <c r="E128" s="36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="106" t="s">
         <v>201</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="87" t="s">
         <v>401</v>
       </c>
-      <c r="E129" s="36" t="s">
+      <c r="E129" s="80" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="34"/>
-      <c r="B130" s="34"/>
+      <c r="A130" s="106"/>
+      <c r="B130" s="106"/>
       <c r="C130" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D130" s="76"/>
-      <c r="E130" s="36"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="80"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="34"/>
-      <c r="B131" s="34"/>
+      <c r="A131" s="106"/>
+      <c r="B131" s="106"/>
       <c r="C131" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D131" s="76"/>
-      <c r="E131" s="36"/>
+      <c r="D131" s="84"/>
+      <c r="E131" s="80"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="34"/>
-      <c r="B132" s="34"/>
+      <c r="A132" s="106"/>
+      <c r="B132" s="106"/>
       <c r="C132" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D132" s="76"/>
-      <c r="E132" s="36"/>
+      <c r="D132" s="84"/>
+      <c r="E132" s="80"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="34"/>
-      <c r="B133" s="34"/>
+      <c r="A133" s="106"/>
+      <c r="B133" s="106"/>
       <c r="C133" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D133" s="76"/>
-      <c r="E133" s="36"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="80"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="34"/>
-      <c r="B134" s="34"/>
+      <c r="A134" s="106"/>
+      <c r="B134" s="106"/>
       <c r="C134" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D134" s="77"/>
-      <c r="E134" s="36"/>
-    </row>
-    <row r="135" spans="1:5" ht="43.2">
+      <c r="D134" s="85"/>
+      <c r="E134" s="80"/>
+    </row>
+    <row r="135" spans="1:5" ht="40.5">
       <c r="A135" s="12" t="s">
         <v>208</v>
       </c>
@@ -5269,14 +5356,14 @@
       <c r="C135" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D135" s="43" t="s">
+      <c r="D135" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E135" s="52" t="s">
+      <c r="E135" s="26" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="43.2">
+    <row r="136" spans="1:5" ht="40.5">
       <c r="A136" s="12" t="s">
         <v>362</v>
       </c>
@@ -5286,14 +5373,14 @@
       <c r="C136" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="D136" s="43" t="s">
+      <c r="D136" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E136" s="52" t="s">
+      <c r="E136" s="26" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="43.2">
+    <row r="137" spans="1:5" ht="40.5">
       <c r="A137" s="12" t="s">
         <v>211</v>
       </c>
@@ -5303,14 +5390,14 @@
       <c r="C137" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="D137" s="43" t="s">
+      <c r="D137" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E137" s="52" t="s">
+      <c r="E137" s="26" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="29.4">
+    <row r="138" spans="1:5" ht="28.5">
       <c r="A138" s="12" t="s">
         <v>361</v>
       </c>
@@ -5320,14 +5407,14 @@
       <c r="C138" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="D138" s="43" t="s">
+      <c r="D138" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E138" s="44" t="s">
+      <c r="E138" s="24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="29.4">
+    <row r="139" spans="1:5" ht="28.5">
       <c r="A139" s="12" t="s">
         <v>213</v>
       </c>
@@ -5337,14 +5424,14 @@
       <c r="C139" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="D139" s="43" t="s">
+      <c r="D139" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E139" s="44" t="s">
+      <c r="E139" s="24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="43.8">
+    <row r="140" spans="1:5" ht="42">
       <c r="A140" s="12" t="s">
         <v>363</v>
       </c>
@@ -5354,14 +5441,14 @@
       <c r="C140" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="D140" s="43" t="s">
+      <c r="D140" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E140" s="44" t="s">
+      <c r="E140" s="24" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="43.8">
+    <row r="141" spans="1:5" ht="42">
       <c r="A141" s="12" t="s">
         <v>215</v>
       </c>
@@ -5371,14 +5458,14 @@
       <c r="C141" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="D141" s="43" t="s">
+      <c r="D141" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E141" s="44" t="s">
+      <c r="E141" s="24" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28.8">
+    <row r="142" spans="1:5" ht="27">
       <c r="A142" s="12" t="s">
         <v>216</v>
       </c>
@@ -5386,65 +5473,65 @@
         <v>320</v>
       </c>
       <c r="C142" s="15"/>
-      <c r="D142" s="43" t="s">
+      <c r="D142" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E142" s="52" t="s">
+      <c r="E142" s="26" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="107" t="s">
         <v>309</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D143" s="35" t="s">
+      <c r="D143" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="E143" s="36" t="s">
+      <c r="E143" s="80" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="34"/>
-      <c r="B144" s="33"/>
+      <c r="A144" s="106"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D144" s="35"/>
-      <c r="E144" s="36"/>
+      <c r="D144" s="102"/>
+      <c r="E144" s="80"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="34"/>
-      <c r="B145" s="33"/>
+      <c r="A145" s="106"/>
+      <c r="B145" s="107"/>
       <c r="C145" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D145" s="35"/>
-      <c r="E145" s="36"/>
+      <c r="D145" s="102"/>
+      <c r="E145" s="80"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="34"/>
-      <c r="B146" s="33"/>
+      <c r="A146" s="106"/>
+      <c r="B146" s="107"/>
       <c r="C146" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D146" s="35"/>
-      <c r="E146" s="36"/>
+      <c r="D146" s="102"/>
+      <c r="E146" s="80"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="34"/>
-      <c r="B147" s="33"/>
+      <c r="A147" s="106"/>
+      <c r="B147" s="107"/>
       <c r="C147" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D147" s="35"/>
-      <c r="E147" s="36"/>
+      <c r="D147" s="102"/>
+      <c r="E147" s="80"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="12" t="s">
@@ -5456,14 +5543,14 @@
       <c r="C148" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D148" s="43" t="s">
+      <c r="D148" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E148" s="44" t="s">
+      <c r="E148" s="24" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="28.8">
+    <row r="149" spans="1:5" ht="27">
       <c r="A149" s="12" t="s">
         <v>227</v>
       </c>
@@ -5473,10 +5560,10 @@
       <c r="C149" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D149" s="43" t="s">
+      <c r="D149" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E149" s="52" t="s">
+      <c r="E149" s="26" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5490,10 +5577,10 @@
       <c r="C150" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D150" s="43" t="s">
+      <c r="D150" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="E150" s="52" t="s">
+      <c r="E150" s="26" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5505,14 +5592,14 @@
         <v>351</v>
       </c>
       <c r="C151" s="15"/>
-      <c r="D151" s="43" t="s">
+      <c r="D151" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="E151" s="52" t="s">
+      <c r="E151" s="26" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="28.8">
+    <row r="152" spans="1:5" ht="27">
       <c r="A152" s="12" t="s">
         <v>232</v>
       </c>
@@ -5520,14 +5607,14 @@
         <v>351</v>
       </c>
       <c r="C152" s="15"/>
-      <c r="D152" s="43" t="s">
+      <c r="D152" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E152" s="52" t="s">
+      <c r="E152" s="26" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="43.2">
+    <row r="153" spans="1:5" ht="40.5">
       <c r="A153" s="12" t="s">
         <v>233</v>
       </c>
@@ -5535,14 +5622,14 @@
         <v>351</v>
       </c>
       <c r="C153" s="15"/>
-      <c r="D153" s="43" t="s">
+      <c r="D153" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="E153" s="52" t="s">
+      <c r="E153" s="26" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" spans="1:5">
       <c r="A154" s="12" t="s">
         <v>234</v>
       </c>
@@ -5552,38 +5639,38 @@
       <c r="C154" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D154" s="43" t="s">
+      <c r="D154" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E154" s="44" t="s">
+      <c r="E154" s="24" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A155" s="34" t="s">
+    <row r="155" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A155" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="107" t="s">
         <v>320</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D155" s="35" t="s">
+      <c r="D155" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="53" t="s">
+      <c r="E155" s="79" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="34"/>
-      <c r="B156" s="33"/>
+      <c r="A156" s="106"/>
+      <c r="B156" s="107"/>
       <c r="C156" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D156" s="35"/>
-      <c r="E156" s="36"/>
+      <c r="D156" s="102"/>
+      <c r="E156" s="80"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="12" t="s">
@@ -5595,10 +5682,10 @@
       <c r="C157" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D157" s="43" t="s">
+      <c r="D157" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E157" s="52" t="s">
+      <c r="E157" s="26" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5612,10 +5699,10 @@
       <c r="C158" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D158" s="43" t="s">
+      <c r="D158" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="E158" s="44" t="s">
+      <c r="E158" s="24" t="s">
         <v>358</v>
       </c>
     </row>
@@ -5627,12 +5714,12 @@
         <v>320</v>
       </c>
       <c r="C159" s="15"/>
-      <c r="D159" s="43" t="s">
+      <c r="D159" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E159" s="54"/>
-    </row>
-    <row r="160" spans="1:5" ht="28.8">
+      <c r="E159" s="27"/>
+    </row>
+    <row r="160" spans="1:5" ht="27">
       <c r="A160" s="12" t="s">
         <v>244</v>
       </c>
@@ -5642,193 +5729,193 @@
       <c r="C160" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D160" s="43" t="s">
+      <c r="D160" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E160" s="52" t="s">
+      <c r="E160" s="26" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A161" s="34" t="s">
+    <row r="161" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A161" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="B161" s="55" t="s">
+      <c r="B161" s="108" t="s">
         <v>366</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D161" s="106" t="s">
+      <c r="D161" s="88" t="s">
         <v>402</v>
       </c>
-      <c r="E161" s="53" t="s">
+      <c r="E161" s="79" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="34"/>
-      <c r="B162" s="56"/>
+      <c r="A162" s="106"/>
+      <c r="B162" s="109"/>
       <c r="C162" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D162" s="86"/>
-      <c r="E162" s="36"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="80"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="34"/>
-      <c r="B163" s="56"/>
+      <c r="A163" s="106"/>
+      <c r="B163" s="109"/>
       <c r="C163" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D163" s="86"/>
-      <c r="E163" s="36"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="80"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="34"/>
-      <c r="B164" s="56"/>
+      <c r="A164" s="106"/>
+      <c r="B164" s="109"/>
       <c r="C164" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D164" s="86"/>
-      <c r="E164" s="36"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="80"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="34"/>
-      <c r="B165" s="56"/>
+      <c r="A165" s="106"/>
+      <c r="B165" s="109"/>
       <c r="C165" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D165" s="86"/>
-      <c r="E165" s="36"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="80"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="34"/>
-      <c r="B166" s="56"/>
+      <c r="A166" s="106"/>
+      <c r="B166" s="109"/>
       <c r="C166" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D166" s="86"/>
-      <c r="E166" s="36"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="80"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="34"/>
-      <c r="B167" s="56"/>
+      <c r="A167" s="106"/>
+      <c r="B167" s="109"/>
       <c r="C167" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D167" s="86"/>
-      <c r="E167" s="36"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="80"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="34"/>
-      <c r="B168" s="56"/>
+      <c r="A168" s="106"/>
+      <c r="B168" s="109"/>
       <c r="C168" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D168" s="86"/>
-      <c r="E168" s="36"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="34"/>
-      <c r="B169" s="56"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="80"/>
+    </row>
+    <row r="169" spans="1:5" ht="30">
+      <c r="A169" s="106"/>
+      <c r="B169" s="109"/>
       <c r="C169" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D169" s="86"/>
-      <c r="E169" s="36"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="34"/>
-      <c r="B170" s="56"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="80"/>
+    </row>
+    <row r="170" spans="1:5" ht="30">
+      <c r="A170" s="106"/>
+      <c r="B170" s="109"/>
       <c r="C170" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D170" s="86"/>
-      <c r="E170" s="36"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="80"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="34"/>
-      <c r="B171" s="56"/>
+      <c r="A171" s="106"/>
+      <c r="B171" s="109"/>
       <c r="C171" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D171" s="86"/>
-      <c r="E171" s="36"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="80"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="34"/>
-      <c r="B172" s="56"/>
+      <c r="A172" s="106"/>
+      <c r="B172" s="109"/>
       <c r="C172" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D172" s="86"/>
-      <c r="E172" s="36"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="80"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="34"/>
-      <c r="B173" s="56"/>
+      <c r="A173" s="106"/>
+      <c r="B173" s="109"/>
       <c r="C173" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D173" s="86"/>
-      <c r="E173" s="36"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="80"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="34"/>
-      <c r="B174" s="56"/>
+      <c r="A174" s="106"/>
+      <c r="B174" s="109"/>
       <c r="C174" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D174" s="86"/>
-      <c r="E174" s="36"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="80"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="34"/>
-      <c r="B175" s="56"/>
+      <c r="A175" s="106"/>
+      <c r="B175" s="109"/>
       <c r="C175" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D175" s="86"/>
-      <c r="E175" s="36"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="80"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="34"/>
-      <c r="B176" s="56"/>
+      <c r="A176" s="106"/>
+      <c r="B176" s="109"/>
       <c r="C176" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D176" s="86"/>
-      <c r="E176" s="36"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="80"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="34"/>
-      <c r="B177" s="56"/>
+      <c r="A177" s="106"/>
+      <c r="B177" s="109"/>
       <c r="C177" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D177" s="86"/>
-      <c r="E177" s="36"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="80"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="34"/>
-      <c r="B178" s="56"/>
+      <c r="A178" s="106"/>
+      <c r="B178" s="109"/>
       <c r="C178" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D178" s="86"/>
-      <c r="E178" s="36"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="80"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="34"/>
-      <c r="B179" s="57"/>
+      <c r="A179" s="106"/>
+      <c r="B179" s="110"/>
       <c r="C179" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D179" s="78"/>
-      <c r="E179" s="36"/>
-    </row>
-    <row r="180" spans="1:5" ht="72">
+      <c r="D179" s="69"/>
+      <c r="E179" s="80"/>
+    </row>
+    <row r="180" spans="1:5" ht="81">
       <c r="A180" s="12" t="s">
         <v>266</v>
       </c>
@@ -5838,307 +5925,308 @@
       <c r="C180" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D180" s="43" t="s">
+      <c r="D180" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E180" s="52" t="s">
+      <c r="E180" s="26" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="31.2" customHeight="1">
-      <c r="A181" s="94" t="s">
+    <row r="181" spans="1:5" ht="31.15" customHeight="1">
+      <c r="A181" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="B181" s="83" t="s">
+      <c r="B181" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C181" s="62" t="s">
+      <c r="C181" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="D181" s="107" t="s">
+      <c r="D181" s="70" t="s">
         <v>405</v>
       </c>
-      <c r="E181" s="85" t="s">
+      <c r="E181" s="73" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="31.2" customHeight="1">
-      <c r="A182" s="86"/>
-      <c r="B182" s="86"/>
-      <c r="C182" s="62" t="s">
+    <row r="182" spans="1:5" ht="31.15" customHeight="1">
+      <c r="A182" s="68"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="D182" s="109"/>
-      <c r="E182" s="87"/>
-    </row>
-    <row r="183" spans="1:5" ht="31.2" customHeight="1">
-      <c r="A183" s="78"/>
-      <c r="B183" s="78"/>
-      <c r="C183" s="62" t="s">
+      <c r="D182" s="71"/>
+      <c r="E182" s="74"/>
+    </row>
+    <row r="183" spans="1:5" ht="31.15" customHeight="1">
+      <c r="A183" s="69"/>
+      <c r="B183" s="69"/>
+      <c r="C183" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="D183" s="108"/>
-      <c r="E183" s="88"/>
+      <c r="D183" s="72"/>
+      <c r="E183" s="75"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="92" t="s">
+      <c r="A184" s="115" t="s">
         <v>269</v>
       </c>
-      <c r="B184" s="66" t="s">
+      <c r="B184" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="C184" s="62" t="s">
+      <c r="C184" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="D184" s="84" t="s">
+      <c r="D184" s="76" t="s">
         <v>311</v>
       </c>
-      <c r="E184" s="72" t="s">
+      <c r="E184" s="81" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A185" s="92"/>
-      <c r="B185" s="66"/>
-      <c r="C185" s="62" t="s">
+    <row r="185" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A185" s="115"/>
+      <c r="B185" s="96"/>
+      <c r="C185" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="D185" s="59"/>
-      <c r="E185" s="64"/>
-    </row>
-    <row r="186" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A186" s="92"/>
-      <c r="B186" s="66"/>
-      <c r="C186" s="62" t="s">
+      <c r="D185" s="77"/>
+      <c r="E185" s="82"/>
+    </row>
+    <row r="186" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A186" s="115"/>
+      <c r="B186" s="96"/>
+      <c r="C186" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D186" s="60"/>
-      <c r="E186" s="64"/>
+      <c r="D186" s="78"/>
+      <c r="E186" s="82"/>
     </row>
     <row r="187" spans="1:5" ht="27" customHeight="1">
-      <c r="A187" s="93" t="s">
+      <c r="A187" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="B187" s="62" t="s">
+      <c r="B187" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C187" s="67" t="s">
+      <c r="C187" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="D187" s="68" t="s">
+      <c r="D187" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="E187" s="73" t="s">
+      <c r="E187" s="36" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A188" s="94" t="s">
+      <c r="A188" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="B188" s="83" t="s">
+      <c r="B188" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="C188" s="62" t="s">
+      <c r="C188" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D188" s="98" t="s">
+      <c r="D188" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="E188" s="102" t="s">
+      <c r="E188" s="60" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A189" s="105"/>
-      <c r="B189" s="50"/>
-      <c r="C189" s="62" t="s">
+    <row r="189" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A189" s="56"/>
+      <c r="B189" s="66"/>
+      <c r="C189" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="D189" s="97"/>
-      <c r="E189" s="105"/>
-    </row>
-    <row r="190" spans="1:5" ht="28.8">
-      <c r="A190" s="93" t="s">
+      <c r="D189" s="65"/>
+      <c r="E189" s="56"/>
+    </row>
+    <row r="190" spans="1:5" ht="30">
+      <c r="A190" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="B190" s="67" t="s">
+      <c r="B190" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="C190" s="62" t="s">
+      <c r="C190" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="D190" s="68" t="s">
+      <c r="D190" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="E190" s="73" t="s">
+      <c r="E190" s="36" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A191" s="92" t="s">
+    <row r="191" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A191" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="B191" s="98" t="s">
+      <c r="B191" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="C191" s="62" t="s">
+      <c r="C191" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="D191" s="99" t="s">
+      <c r="D191" s="67" t="s">
         <v>400</v>
       </c>
-      <c r="E191" s="64" t="s">
+      <c r="E191" s="82" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="92"/>
-      <c r="B192" s="97"/>
-      <c r="C192" s="62" t="s">
+      <c r="A192" s="115"/>
+      <c r="B192" s="65"/>
+      <c r="C192" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="D192" s="99"/>
-      <c r="E192" s="64"/>
+      <c r="D192" s="67"/>
+      <c r="E192" s="82"/>
     </row>
     <row r="193" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A193" s="94" t="s">
+      <c r="A193" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="B193" s="83" t="s">
+      <c r="B193" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="62" t="s">
+      <c r="C193" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="D193" s="98" t="s">
+      <c r="D193" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="E193" s="102" t="s">
+      <c r="E193" s="60" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="118"/>
-      <c r="B194" s="100"/>
-      <c r="C194" s="62" t="s">
+      <c r="A194" s="55"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="D194" s="96"/>
-      <c r="E194" s="103"/>
+      <c r="D194" s="64"/>
+      <c r="E194" s="61"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="118"/>
-      <c r="B195" s="100"/>
-      <c r="C195" s="62" t="s">
+      <c r="A195" s="55"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="D195" s="96"/>
-      <c r="E195" s="103"/>
+      <c r="D195" s="64"/>
+      <c r="E195" s="61"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="118"/>
-      <c r="B196" s="100"/>
-      <c r="C196" s="62" t="s">
+      <c r="A196" s="55"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="D196" s="96"/>
-      <c r="E196" s="103"/>
+      <c r="D196" s="64"/>
+      <c r="E196" s="61"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="105"/>
-      <c r="B197" s="101"/>
-      <c r="C197" s="62" t="s">
+      <c r="A197" s="56"/>
+      <c r="B197" s="59"/>
+      <c r="C197" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="D197" s="97"/>
-      <c r="E197" s="104"/>
-    </row>
-    <row r="198" spans="1:5" ht="28.8">
-      <c r="A198" s="93" t="s">
+      <c r="D197" s="65"/>
+      <c r="E197" s="62"/>
+    </row>
+    <row r="198" spans="1:5" ht="27">
+      <c r="A198" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="B198" s="62" t="s">
+      <c r="B198" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C198" s="68"/>
-      <c r="D198" s="67" t="s">
+      <c r="C198" s="32"/>
+      <c r="D198" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="E198" s="73" t="s">
+      <c r="E198" s="36" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="D199" s="90"/>
+      <c r="D199" s="41"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="D200" s="90"/>
+      <c r="D200" s="41"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="D201" s="90"/>
+      <c r="D201" s="41"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="D202" s="90"/>
+      <c r="D202" s="41"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="D203" s="90"/>
+      <c r="D203" s="41"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="D204" s="90"/>
+      <c r="D204" s="41"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="D205" s="90"/>
+      <c r="D205" s="41"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="D206" s="90"/>
+      <c r="D206" s="41"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="D207" s="90"/>
+      <c r="D207" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E198"/>
   <mergeCells count="106">
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="D193:D197"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="E181:E183"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="E161:E179"/>
-    <mergeCell ref="E184:E186"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="D161:D179"/>
-    <mergeCell ref="E103:E107"/>
-    <mergeCell ref="E109:E118"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="E143:E147"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E66"/>
-    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A161:A179"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A191:A192"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E9:E13"/>
@@ -6163,48 +6251,47 @@
     <mergeCell ref="B129:B134"/>
     <mergeCell ref="B143:B147"/>
     <mergeCell ref="B155:B156"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E66"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="D161:D179"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="E109:E118"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="E143:E147"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="E181:E183"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E161:E179"/>
+    <mergeCell ref="E184:E186"/>
+    <mergeCell ref="E191:E192"/>
     <mergeCell ref="B161:B179"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A161:A179"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B66"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="D193:D197"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="B191:B192"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -6416,1741 +6503,1739 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="183" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.09765625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="183" style="1"/>
+    <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="143.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="14.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:3" ht="56.25" customHeight="1">
+      <c r="A1" s="122" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+    </row>
+    <row r="2" spans="1:3" s="121" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="123" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="123" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="123" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="53" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="58" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="120" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34.799999999999997">
-      <c r="A5" s="120" t="s">
-        <v>412</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
-      <c r="A6" s="120" t="s">
-        <v>414</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="121" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="58" t="s">
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="53" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" s="53" t="s">
+        <v>530</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="A53" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" s="53" t="s">
+        <v>532</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="53" t="s">
+        <v>532</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8">
-      <c r="A14" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="58" t="s">
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.399999999999999">
-      <c r="A15" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.399999999999999">
-      <c r="A16" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="121" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999">
-      <c r="A17" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="121" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="120" t="s">
-        <v>412</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34.799999999999997">
-      <c r="A19" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="121" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999">
-      <c r="A21" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="121" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.399999999999999">
-      <c r="A23" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="121" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="120" t="s">
-        <v>433</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.399999999999999">
-      <c r="A25" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="121" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8">
-      <c r="A29" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.399999999999999">
-      <c r="A30" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="121" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.399999999999999">
-      <c r="A31" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="121" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.399999999999999">
-      <c r="A32" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="121" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.399999999999999">
-      <c r="A33" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="121" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.399999999999999">
-      <c r="A34" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="121" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.399999999999999">
-      <c r="A35" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="121" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.399999999999999">
-      <c r="A36" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="121" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.399999999999999">
-      <c r="A38" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="121" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.399999999999999">
-      <c r="A39" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34.799999999999997">
-      <c r="A40" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B40" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="121" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34.799999999999997">
-      <c r="A41" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="121" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="34.799999999999997">
-      <c r="A42" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B42" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="121" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34.799999999999997">
-      <c r="A43" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="121" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.399999999999999">
-      <c r="A44" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="121" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="34.799999999999997">
-      <c r="A45" s="120" t="s">
-        <v>457</v>
-      </c>
-      <c r="B45" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="121" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8">
-      <c r="A46" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.399999999999999">
-      <c r="A47" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="121" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="34.799999999999997">
-      <c r="A48" s="120" t="s">
-        <v>461</v>
-      </c>
-      <c r="B48" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="121" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B49" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.399999999999999">
-      <c r="A50" s="120" t="s">
-        <v>464</v>
-      </c>
-      <c r="B50" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="121" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34.799999999999997">
-      <c r="A51" s="120" t="s">
-        <v>466</v>
-      </c>
-      <c r="B51" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="121" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34.799999999999997">
-      <c r="A52" s="120" t="s">
-        <v>466</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="121" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17.399999999999999">
-      <c r="A53" s="120" t="s">
-        <v>466</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="121" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17.399999999999999">
-      <c r="A54" s="120" t="s">
-        <v>466</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="121" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="34.799999999999997">
-      <c r="A55" s="120" t="s">
-        <v>466</v>
-      </c>
-      <c r="B55" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="121" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="34.799999999999997">
-      <c r="A56" s="120" t="s">
-        <v>466</v>
-      </c>
-      <c r="B56" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="121" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="34.799999999999997">
-      <c r="A57" s="120" t="s">
-        <v>471</v>
-      </c>
-      <c r="B57" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="121" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="34.799999999999997">
-      <c r="A58" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B58" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="121" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="120" t="s">
-        <v>474</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="58" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17.399999999999999">
-      <c r="A60" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B60" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="121" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.8">
-      <c r="A61" s="120" t="s">
-        <v>477</v>
-      </c>
-      <c r="B61" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17.399999999999999">
-      <c r="A62" s="120" t="s">
-        <v>479</v>
-      </c>
-      <c r="B62" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="121" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17.399999999999999">
-      <c r="A63" s="120" t="s">
-        <v>481</v>
-      </c>
-      <c r="B63" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="121" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="34.799999999999997">
-      <c r="A64" s="120" t="s">
-        <v>471</v>
-      </c>
-      <c r="B64" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C64" s="121" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="120" t="s">
-        <v>412</v>
-      </c>
-      <c r="B65" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17.399999999999999">
-      <c r="A66" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B66" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="C66" s="121" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17.399999999999999">
-      <c r="A67" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B67" s="58" t="s">
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B69" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="121" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17.399999999999999">
-      <c r="A68" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B68" s="58" t="s">
+      <c r="C69" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B70" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="121" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17.399999999999999">
-      <c r="A69" s="120" t="s">
-        <v>488</v>
-      </c>
-      <c r="B69" s="58" t="s">
+      <c r="C70" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="53" t="s">
+        <v>537</v>
+      </c>
+      <c r="B71" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="C69" s="121" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34.799999999999997">
-      <c r="A70" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B70" s="58" t="s">
+      <c r="C71" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="121" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="34.799999999999997">
-      <c r="A71" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B71" s="58" t="s">
+      <c r="C72" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B73" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="121" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="34.799999999999997">
-      <c r="A72" s="120" t="s">
-        <v>457</v>
-      </c>
-      <c r="B72" s="58" t="s">
+      <c r="C73" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="B74" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="C72" s="121" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B73" s="58" t="s">
+      <c r="C74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15">
+      <c r="A75" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="58" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B74" s="58" t="s">
+      <c r="C75" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B76" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="58" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="58" t="s">
-        <v>495</v>
-      </c>
-      <c r="B75" s="58" t="s">
+      <c r="C76" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" s="53" t="s">
+        <v>538</v>
+      </c>
+      <c r="B77" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="58" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B76" s="58" t="s">
+      <c r="C77" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="C76" s="58" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17.399999999999999">
-      <c r="A77" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B77" s="58" t="s">
+      <c r="C78" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B79" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="C77" s="121" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34.799999999999997">
-      <c r="A78" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B78" s="58" t="s">
+      <c r="C79" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B80" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C78" s="121" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B79" s="58" t="s">
+      <c r="C80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B81" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="58" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B80" s="58" t="s">
+      <c r="C81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B82" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="C80" s="58" t="s">
-        <v>501</v>
+      <c r="C82" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C80" r:id="rId1" location="TONEMAP_CURVE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_CURVE"/>
-    <hyperlink ref="C79" r:id="rId2" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
-    <hyperlink ref="A79" r:id="rId3" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C76" r:id="rId4" location="STATISTICS_LENS_SHADING_MAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_LENS_SHADING_MAP_MODE"/>
-    <hyperlink ref="A76" r:id="rId5" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C75" r:id="rId6" location="STATISTICS_HOT_PIXEL_MAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_HOT_PIXEL_MAP_MODE"/>
-    <hyperlink ref="A75" r:id="rId7" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C74" r:id="rId8" location="STATISTICS_FACE_DETECT_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_FACE_DETECT_MODE"/>
-    <hyperlink ref="A74" r:id="rId9" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C73" r:id="rId10" location="SHADING_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SHADING_MODE"/>
-    <hyperlink ref="A73" r:id="rId11" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C65" r:id="rId12" location="SENSOR_SENSITIVITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_SENSITIVITY"/>
-    <hyperlink ref="C61" r:id="rId13" location="SENSOR_FRAME_DURATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_FRAME_DURATION"/>
-    <hyperlink ref="C59" r:id="rId14" location="SENSOR_EXPOSURE_TIME" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_EXPOSURE_TIME"/>
-    <hyperlink ref="C49" r:id="rId15" location="SENSOR_TEST_PATTERN_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_TEST_PATTERN_MODE"/>
-    <hyperlink ref="A49" r:id="rId16" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C46" r:id="rId17" location="SCALER_CROP_REGION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SCALER_CROP_REGION"/>
-    <hyperlink ref="A39" r:id="rId18" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C37" r:id="rId19" location="NOISE_REDUCTION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - NOISE_REDUCTION_MODE"/>
-    <hyperlink ref="A37" r:id="rId20" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="A36" r:id="rId21" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="A35" r:id="rId22" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="A34" r:id="rId23" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="A33" r:id="rId24" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C29" r:id="rId25" location="LENS_OPTICAL_STABILIZATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_OPTICAL_STABILIZATION_MODE"/>
-    <hyperlink ref="A29" r:id="rId26" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C28" r:id="rId27" location="LENS_FOCAL_LENGTH" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_FOCAL_LENGTH"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C27" r:id="rId29" location="LENS_FILTER_DENSITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_FILTER_DENSITY"/>
-    <hyperlink ref="A27" r:id="rId30" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C26" r:id="rId31" location="LENS_APERTURE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_APERTURE"/>
-    <hyperlink ref="A26" r:id="rId32" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C24" r:id="rId33" location="JPEG_THUMBNAIL_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_THUMBNAIL_SIZE"/>
-    <hyperlink ref="C22" r:id="rId34" location="HOT_PIXEL_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - HOT_PIXEL_MODE"/>
-    <hyperlink ref="A22" r:id="rId35" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C20" r:id="rId36" location="EDGE_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - EDGE_MODE"/>
-    <hyperlink ref="A20" r:id="rId37" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C18" r:id="rId38" location="CONTROL_POST_RAW_SENSITIVITY_BOOST" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_POST_RAW_SENSITIVITY_BOOST"/>
-    <hyperlink ref="C14" r:id="rId39" location="CONTROL_AWB_LOCK" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AWB_LOCK"/>
-    <hyperlink ref="C13" r:id="rId40" location="CONTROL_AWB_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AWB_MODE"/>
-    <hyperlink ref="A13" r:id="rId41" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C12" r:id="rId42" location="CONTROL_VIDEO_STABILIZATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_VIDEO_STABILIZATION_MODE"/>
-    <hyperlink ref="A12" r:id="rId43" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C11" r:id="rId44" location="CONTROL_SCENE_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_SCENE_MODE"/>
-    <hyperlink ref="A11" r:id="rId45" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C10" r:id="rId46" location="CONTROL_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_MODE"/>
-    <hyperlink ref="A10" r:id="rId47" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C9" r:id="rId48" location="CONTROL_EFFECT_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_EFFECT_MODE"/>
-    <hyperlink ref="A9" r:id="rId49" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C8" r:id="rId50" location="CONTROL_AF_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AF_MODE"/>
-    <hyperlink ref="A8" r:id="rId51" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C7" r:id="rId52" location="CONTROL_AE_LOCK" display="CONTROL_AE_LOCK"/>
-    <hyperlink ref="C4" r:id="rId53" location="CONTROL_AE_TARGET_FPS_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_TARGET_FPS_RANGE"/>
-    <hyperlink ref="C3" r:id="rId54" location="CONTROL_AE_MODE" display="CONTROL_AE_MODE"/>
-    <hyperlink ref="A3" r:id="rId55" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C2" r:id="rId56" location="CONTROL_AE_ANTIBANDING_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_ANTIBANDING_MODE"/>
-    <hyperlink ref="A2" r:id="rId57" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="C1" r:id="rId58" location="COLOR_CORRECTION_ABERRATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_ABERRATION_MODE"/>
-    <hyperlink ref="A1" r:id="rId59" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.Key.html"/>
-    <hyperlink ref="B80" r:id="rId60" location="TONEMAP_MAX_CURVE_POINTS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - TONEMAP_MAX_CURVE_POINTS"/>
-    <hyperlink ref="B79" r:id="rId61" location="TONEMAP_AVAILABLE_TONE_MAP_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - TONEMAP_AVAILABLE_TONE_MAP_MODES"/>
-    <hyperlink ref="B78" r:id="rId62" location="SYNC_MAX_LATENCY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SYNC_MAX_LATENCY"/>
-    <hyperlink ref="B77" r:id="rId63" location="STATISTICS_INFO_MAX_FACE_COUNT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - STATISTICS_INFO_MAX_FACE_COUNT"/>
-    <hyperlink ref="B76" r:id="rId64" location="STATISTICS_INFO_AVAILABLE_LENS_SHADING_MAP_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - STATISTICS_INFO_AVAILABLE_LENS_SHADING_MAP_MODES"/>
-    <hyperlink ref="B75" r:id="rId65" location="STATISTICS_INFO_AVAILABLE_HOT_PIXEL_MAP_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - STATISTICS_INFO_AVAILABLE_HOT_PIXEL_MAP_MODES"/>
-    <hyperlink ref="B74" r:id="rId66" location="STATISTICS_INFO_AVAILABLE_FACE_DETECT_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - STATISTICS_INFO_AVAILABLE_FACE_DETECT_MODES"/>
-    <hyperlink ref="B73" r:id="rId67" location="SHADING_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SHADING_AVAILABLE_MODES"/>
-    <hyperlink ref="B72" r:id="rId68" location="SENSOR_REFERENCE_ILLUMINANT2" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_REFERENCE_ILLUMINANT2"/>
-    <hyperlink ref="B71" r:id="rId69" location="SENSOR_REFERENCE_ILLUMINANT1" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_REFERENCE_ILLUMINANT1"/>
-    <hyperlink ref="B70" r:id="rId70" location="SENSOR_ORIENTATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_ORIENTATION"/>
-    <hyperlink ref="B69" r:id="rId71" location="SENSOR_OPTICAL_BLACK_REGIONS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_OPTICAL_BLACK_REGIONS"/>
-    <hyperlink ref="B68" r:id="rId72" location="SENSOR_MAX_ANALOG_SENSITIVITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_MAX_ANALOG_SENSITIVITY"/>
-    <hyperlink ref="B67" r:id="rId73" location="SENSOR_INFO_WHITE_LEVEL" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_WHITE_LEVEL"/>
-    <hyperlink ref="B66" r:id="rId74" location="SENSOR_INFO_TIMESTAMP_SOURCE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_TIMESTAMP_SOURCE"/>
-    <hyperlink ref="B65" r:id="rId75" location="SENSOR_INFO_SENSITIVITY_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_SENSITIVITY_RANGE"/>
-    <hyperlink ref="B64" r:id="rId76" location="SENSOR_INFO_PRE_CORRECTION_ACTIVE_ARRAY_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_PRE_CORRECTION_ACTIVE_ARRAY_SIZE"/>
-    <hyperlink ref="B63" r:id="rId77" location="SENSOR_INFO_PIXEL_ARRAY_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_PIXEL_ARRAY_SIZE"/>
-    <hyperlink ref="B62" r:id="rId78" location="SENSOR_INFO_PHYSICAL_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_PHYSICAL_SIZE"/>
-    <hyperlink ref="B61" r:id="rId79" location="SENSOR_INFO_MAX_FRAME_DURATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_MAX_FRAME_DURATION"/>
-    <hyperlink ref="B60" r:id="rId80" location="SENSOR_INFO_LENS_SHADING_APPLIED" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_LENS_SHADING_APPLIED"/>
-    <hyperlink ref="B59" r:id="rId81" location="SENSOR_INFO_EXPOSURE_TIME_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_EXPOSURE_TIME_RANGE"/>
-    <hyperlink ref="B58" r:id="rId82" location="SENSOR_INFO_COLOR_FILTER_ARRANGEMENT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_COLOR_FILTER_ARRANGEMENT"/>
-    <hyperlink ref="B57" r:id="rId83" location="SENSOR_INFO_ACTIVE_ARRAY_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_ACTIVE_ARRAY_SIZE"/>
-    <hyperlink ref="B56" r:id="rId84" location="SENSOR_FORWARD_MATRIX2" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_FORWARD_MATRIX2"/>
-    <hyperlink ref="B55" r:id="rId85" location="SENSOR_FORWARD_MATRIX1" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_FORWARD_MATRIX1"/>
-    <hyperlink ref="B54" r:id="rId86" location="SENSOR_COLOR_TRANSFORM2" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_COLOR_TRANSFORM2"/>
-    <hyperlink ref="B53" r:id="rId87" location="SENSOR_COLOR_TRANSFORM1" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_COLOR_TRANSFORM1"/>
-    <hyperlink ref="B52" r:id="rId88" location="SENSOR_CALIBRATION_TRANSFORM2" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_CALIBRATION_TRANSFORM2"/>
-    <hyperlink ref="B51" r:id="rId89" location="SENSOR_CALIBRATION_TRANSFORM1" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_CALIBRATION_TRANSFORM1"/>
-    <hyperlink ref="B50" r:id="rId90" location="SENSOR_BLACK_LEVEL_PATTERN" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_BLACK_LEVEL_PATTERN"/>
-    <hyperlink ref="B49" r:id="rId91" location="SENSOR_AVAILABLE_TEST_PATTERN_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_AVAILABLE_TEST_PATTERN_MODES"/>
-    <hyperlink ref="B48" r:id="rId92" location="SCALER_STREAM_CONFIGURATION_MAP" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SCALER_STREAM_CONFIGURATION_MAP"/>
-    <hyperlink ref="B47" r:id="rId93" location="SCALER_CROPPING_TYPE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SCALER_CROPPING_TYPE"/>
-    <hyperlink ref="B46" r:id="rId94" location="SCALER_AVAILABLE_MAX_DIGITAL_ZOOM" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SCALER_AVAILABLE_MAX_DIGITAL_ZOOM"/>
-    <hyperlink ref="B45" r:id="rId95" location="REQUEST_PIPELINE_MAX_DEPTH" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_PIPELINE_MAX_DEPTH"/>
-    <hyperlink ref="B44" r:id="rId96" location="REQUEST_PARTIAL_RESULT_COUNT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_PARTIAL_RESULT_COUNT"/>
-    <hyperlink ref="B43" r:id="rId97" location="REQUEST_MAX_NUM_OUTPUT_RAW" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_MAX_NUM_OUTPUT_RAW"/>
-    <hyperlink ref="B42" r:id="rId98" location="REQUEST_MAX_NUM_OUTPUT_PROC_STALLING" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_MAX_NUM_OUTPUT_PROC_STALLING"/>
-    <hyperlink ref="B41" r:id="rId99" location="REQUEST_MAX_NUM_OUTPUT_PROC" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_MAX_NUM_OUTPUT_PROC"/>
-    <hyperlink ref="B40" r:id="rId100" location="REQUEST_MAX_NUM_INPUT_STREAMS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_MAX_NUM_INPUT_STREAMS"/>
-    <hyperlink ref="B39" r:id="rId101" location="REQUEST_AVAILABLE_CAPABILITIES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_AVAILABLE_CAPABILITIES"/>
-    <hyperlink ref="B38" r:id="rId102" location="REPROCESS_MAX_CAPTURE_STALL" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REPROCESS_MAX_CAPTURE_STALL"/>
-    <hyperlink ref="B37" r:id="rId103" location="NOISE_REDUCTION_AVAILABLE_NOISE_REDUCTION_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - NOISE_REDUCTION_AVAILABLE_NOISE_REDUCTION_MODES"/>
-    <hyperlink ref="B36" r:id="rId104" location="LENS_RADIAL_DISTORTION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_RADIAL_DISTORTION"/>
-    <hyperlink ref="B35" r:id="rId105" location="LENS_POSE_TRANSLATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_POSE_TRANSLATION"/>
-    <hyperlink ref="B34" r:id="rId106" location="LENS_POSE_ROTATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_POSE_ROTATION"/>
-    <hyperlink ref="B33" r:id="rId107" location="LENS_INTRINSIC_CALIBRATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INTRINSIC_CALIBRATION"/>
-    <hyperlink ref="B32" r:id="rId108" location="LENS_INFO_MINIMUM_FOCUS_DISTANCE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_MINIMUM_FOCUS_DISTANCE"/>
-    <hyperlink ref="B31" r:id="rId109" location="LENS_INFO_HYPERFOCAL_DISTANCE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_HYPERFOCAL_DISTANCE"/>
-    <hyperlink ref="B30" r:id="rId110" location="LENS_INFO_FOCUS_DISTANCE_CALIBRATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_FOCUS_DISTANCE_CALIBRATION"/>
-    <hyperlink ref="B29" r:id="rId111" location="LENS_INFO_AVAILABLE_OPTICAL_STABILIZATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_AVAILABLE_OPTICAL_STABILIZATION"/>
-    <hyperlink ref="B28" r:id="rId112" location="LENS_INFO_AVAILABLE_FOCAL_LENGTHS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_AVAILABLE_FOCAL_LENGTHS"/>
-    <hyperlink ref="B27" r:id="rId113" location="LENS_INFO_AVAILABLE_FILTER_DENSITIES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_AVAILABLE_FILTER_DENSITIES"/>
-    <hyperlink ref="B26" r:id="rId114" location="LENS_INFO_AVAILABLE_APERTURES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_AVAILABLE_APERTURES"/>
-    <hyperlink ref="B25" r:id="rId115" location="LENS_FACING" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_FACING"/>
-    <hyperlink ref="B24" r:id="rId116" location="JPEG_AVAILABLE_THUMBNAIL_SIZES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - JPEG_AVAILABLE_THUMBNAIL_SIZES"/>
-    <hyperlink ref="B23" r:id="rId117" location="INFO_SUPPORTED_HARDWARE_LEVEL" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - INFO_SUPPORTED_HARDWARE_LEVEL"/>
-    <hyperlink ref="B22" r:id="rId118" location="HOT_PIXEL_AVAILABLE_HOT_PIXEL_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - HOT_PIXEL_AVAILABLE_HOT_PIXEL_MODES"/>
-    <hyperlink ref="B21" r:id="rId119" location="FLASH_INFO_AVAILABLE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - FLASH_INFO_AVAILABLE"/>
-    <hyperlink ref="B20" r:id="rId120" location="EDGE_AVAILABLE_EDGE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - EDGE_AVAILABLE_EDGE_MODES"/>
-    <hyperlink ref="B19" r:id="rId121" location="DEPTH_DEPTH_IS_EXCLUSIVE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - DEPTH_DEPTH_IS_EXCLUSIVE"/>
-    <hyperlink ref="B18" r:id="rId122" location="CONTROL_POST_RAW_SENSITIVITY_BOOST_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_POST_RAW_SENSITIVITY_BOOST_RANGE"/>
-    <hyperlink ref="B17" r:id="rId123" location="CONTROL_MAX_REGIONS_AWB" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_MAX_REGIONS_AWB"/>
-    <hyperlink ref="B16" r:id="rId124" location="CONTROL_MAX_REGIONS_AF" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_MAX_REGIONS_AF"/>
-    <hyperlink ref="B15" r:id="rId125" location="CONTROL_MAX_REGIONS_AE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_MAX_REGIONS_AE"/>
-    <hyperlink ref="B14" r:id="rId126" location="CONTROL_AWB_LOCK_AVAILABLE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AWB_LOCK_AVAILABLE"/>
-    <hyperlink ref="B13" r:id="rId127" location="CONTROL_AWB_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AWB_AVAILABLE_MODES"/>
-    <hyperlink ref="B12" r:id="rId128" location="CONTROL_AVAILABLE_VIDEO_STABILIZATION_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AVAILABLE_VIDEO_STABILIZATION_MODES"/>
-    <hyperlink ref="B11" r:id="rId129" location="CONTROL_AVAILABLE_SCENE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AVAILABLE_SCENE_MODES"/>
-    <hyperlink ref="B10" r:id="rId130" location="CONTROL_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AVAILABLE_MODES"/>
-    <hyperlink ref="B9" r:id="rId131" location="CONTROL_AVAILABLE_EFFECTS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AVAILABLE_EFFECTS"/>
-    <hyperlink ref="B8" r:id="rId132" location="CONTROL_AF_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AF_AVAILABLE_MODES"/>
-    <hyperlink ref="B7" r:id="rId133" location="CONTROL_AE_LOCK_AVAILABLE"/>
-    <hyperlink ref="B6" r:id="rId134" location="CONTROL_AE_COMPENSATION_STEP" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_COMPENSATION_STEP"/>
-    <hyperlink ref="B5" r:id="rId135" location="CONTROL_AE_COMPENSATION_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_COMPENSATION_RANGE"/>
-    <hyperlink ref="B4" r:id="rId136" location="CONTROL_AE_AVAILABLE_TARGET_FPS_RANGES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_AVAILABLE_TARGET_FPS_RANGES"/>
-    <hyperlink ref="B3" r:id="rId137" location="CONTROL_AE_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_AVAILABLE_MODES"/>
-    <hyperlink ref="B2" r:id="rId138" location="CONTROL_AE_AVAILABLE_ANTIBANDING_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_AVAILABLE_ANTIBANDING_MODES"/>
-    <hyperlink ref="B1" r:id="rId139" location="COLOR_CORRECTION_AVAILABLE_ABERRATION_MODES"/>
+    <hyperlink ref="B82" r:id="rId1" location="TONEMAP_MAX_CURVE_POINTS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - TONEMAP_MAX_CURVE_POINTS"/>
+    <hyperlink ref="B81" r:id="rId2" location="TONEMAP_AVAILABLE_TONE_MAP_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - TONEMAP_AVAILABLE_TONE_MAP_MODES"/>
+    <hyperlink ref="B80" r:id="rId3" location="SYNC_MAX_LATENCY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SYNC_MAX_LATENCY"/>
+    <hyperlink ref="B79" r:id="rId4" location="STATISTICS_INFO_MAX_FACE_COUNT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - STATISTICS_INFO_MAX_FACE_COUNT"/>
+    <hyperlink ref="B78" r:id="rId5" location="STATISTICS_INFO_AVAILABLE_LENS_SHADING_MAP_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - STATISTICS_INFO_AVAILABLE_LENS_SHADING_MAP_MODES"/>
+    <hyperlink ref="B77" r:id="rId6" location="STATISTICS_INFO_AVAILABLE_HOT_PIXEL_MAP_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - STATISTICS_INFO_AVAILABLE_HOT_PIXEL_MAP_MODES"/>
+    <hyperlink ref="B76" r:id="rId7" location="STATISTICS_INFO_AVAILABLE_FACE_DETECT_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - STATISTICS_INFO_AVAILABLE_FACE_DETECT_MODES"/>
+    <hyperlink ref="B75" r:id="rId8" location="SHADING_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SHADING_AVAILABLE_MODES"/>
+    <hyperlink ref="B74" r:id="rId9" location="SENSOR_REFERENCE_ILLUMINANT2" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_REFERENCE_ILLUMINANT2"/>
+    <hyperlink ref="B73" r:id="rId10" location="SENSOR_REFERENCE_ILLUMINANT1" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_REFERENCE_ILLUMINANT1"/>
+    <hyperlink ref="B72" r:id="rId11" location="SENSOR_ORIENTATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_ORIENTATION"/>
+    <hyperlink ref="B71" r:id="rId12" location="SENSOR_OPTICAL_BLACK_REGIONS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_OPTICAL_BLACK_REGIONS"/>
+    <hyperlink ref="B70" r:id="rId13" location="SENSOR_MAX_ANALOG_SENSITIVITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_MAX_ANALOG_SENSITIVITY"/>
+    <hyperlink ref="B69" r:id="rId14" location="SENSOR_INFO_WHITE_LEVEL" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_WHITE_LEVEL"/>
+    <hyperlink ref="B68" r:id="rId15" location="SENSOR_INFO_TIMESTAMP_SOURCE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_TIMESTAMP_SOURCE"/>
+    <hyperlink ref="B67" r:id="rId16" location="SENSOR_INFO_SENSITIVITY_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_SENSITIVITY_RANGE"/>
+    <hyperlink ref="B66" r:id="rId17" location="SENSOR_INFO_PRE_CORRECTION_ACTIVE_ARRAY_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_PRE_CORRECTION_ACTIVE_ARRAY_SIZE"/>
+    <hyperlink ref="B65" r:id="rId18" location="SENSOR_INFO_PIXEL_ARRAY_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_PIXEL_ARRAY_SIZE"/>
+    <hyperlink ref="B64" r:id="rId19" location="SENSOR_INFO_PHYSICAL_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_PHYSICAL_SIZE"/>
+    <hyperlink ref="B63" r:id="rId20" location="SENSOR_INFO_MAX_FRAME_DURATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_MAX_FRAME_DURATION"/>
+    <hyperlink ref="B62" r:id="rId21" location="SENSOR_INFO_LENS_SHADING_APPLIED" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_LENS_SHADING_APPLIED"/>
+    <hyperlink ref="B61" r:id="rId22" location="SENSOR_INFO_EXPOSURE_TIME_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_EXPOSURE_TIME_RANGE"/>
+    <hyperlink ref="B60" r:id="rId23" location="SENSOR_INFO_COLOR_FILTER_ARRANGEMENT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_COLOR_FILTER_ARRANGEMENT"/>
+    <hyperlink ref="B59" r:id="rId24" location="SENSOR_INFO_ACTIVE_ARRAY_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_INFO_ACTIVE_ARRAY_SIZE"/>
+    <hyperlink ref="B58" r:id="rId25" location="SENSOR_FORWARD_MATRIX2" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_FORWARD_MATRIX2"/>
+    <hyperlink ref="B57" r:id="rId26" location="SENSOR_FORWARD_MATRIX1" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_FORWARD_MATRIX1"/>
+    <hyperlink ref="B56" r:id="rId27" location="SENSOR_COLOR_TRANSFORM2" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_COLOR_TRANSFORM2"/>
+    <hyperlink ref="B55" r:id="rId28" location="SENSOR_COLOR_TRANSFORM1" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_COLOR_TRANSFORM1"/>
+    <hyperlink ref="B54" r:id="rId29" location="SENSOR_CALIBRATION_TRANSFORM2" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_CALIBRATION_TRANSFORM2"/>
+    <hyperlink ref="B53" r:id="rId30" location="SENSOR_CALIBRATION_TRANSFORM1" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_CALIBRATION_TRANSFORM1"/>
+    <hyperlink ref="B52" r:id="rId31" location="SENSOR_BLACK_LEVEL_PATTERN" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_BLACK_LEVEL_PATTERN"/>
+    <hyperlink ref="B51" r:id="rId32" location="SENSOR_AVAILABLE_TEST_PATTERN_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SENSOR_AVAILABLE_TEST_PATTERN_MODES"/>
+    <hyperlink ref="B50" r:id="rId33" location="SCALER_STREAM_CONFIGURATION_MAP" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SCALER_STREAM_CONFIGURATION_MAP"/>
+    <hyperlink ref="B49" r:id="rId34" location="SCALER_CROPPING_TYPE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SCALER_CROPPING_TYPE"/>
+    <hyperlink ref="B48" r:id="rId35" location="SCALER_AVAILABLE_MAX_DIGITAL_ZOOM" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - SCALER_AVAILABLE_MAX_DIGITAL_ZOOM"/>
+    <hyperlink ref="B47" r:id="rId36" location="REQUEST_PIPELINE_MAX_DEPTH" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_PIPELINE_MAX_DEPTH"/>
+    <hyperlink ref="B46" r:id="rId37" location="REQUEST_PARTIAL_RESULT_COUNT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_PARTIAL_RESULT_COUNT"/>
+    <hyperlink ref="B45" r:id="rId38" location="REQUEST_MAX_NUM_OUTPUT_RAW" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_MAX_NUM_OUTPUT_RAW"/>
+    <hyperlink ref="B44" r:id="rId39" location="REQUEST_MAX_NUM_OUTPUT_PROC_STALLING" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_MAX_NUM_OUTPUT_PROC_STALLING"/>
+    <hyperlink ref="B43" r:id="rId40" location="REQUEST_MAX_NUM_OUTPUT_PROC" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_MAX_NUM_OUTPUT_PROC"/>
+    <hyperlink ref="B42" r:id="rId41" location="REQUEST_MAX_NUM_INPUT_STREAMS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_MAX_NUM_INPUT_STREAMS"/>
+    <hyperlink ref="B41" r:id="rId42" location="REQUEST_AVAILABLE_CAPABILITIES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REQUEST_AVAILABLE_CAPABILITIES"/>
+    <hyperlink ref="B40" r:id="rId43" location="REPROCESS_MAX_CAPTURE_STALL" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - REPROCESS_MAX_CAPTURE_STALL"/>
+    <hyperlink ref="B39" r:id="rId44" location="NOISE_REDUCTION_AVAILABLE_NOISE_REDUCTION_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - NOISE_REDUCTION_AVAILABLE_NOISE_REDUCTION_MODES"/>
+    <hyperlink ref="B38" r:id="rId45" location="LENS_RADIAL_DISTORTION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_RADIAL_DISTORTION"/>
+    <hyperlink ref="B37" r:id="rId46" location="LENS_POSE_TRANSLATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_POSE_TRANSLATION"/>
+    <hyperlink ref="B36" r:id="rId47" location="LENS_POSE_ROTATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_POSE_ROTATION"/>
+    <hyperlink ref="B35" r:id="rId48" location="LENS_INTRINSIC_CALIBRATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INTRINSIC_CALIBRATION"/>
+    <hyperlink ref="B34" r:id="rId49" location="LENS_INFO_MINIMUM_FOCUS_DISTANCE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_MINIMUM_FOCUS_DISTANCE"/>
+    <hyperlink ref="B33" r:id="rId50" location="LENS_INFO_HYPERFOCAL_DISTANCE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_HYPERFOCAL_DISTANCE"/>
+    <hyperlink ref="B32" r:id="rId51" location="LENS_INFO_FOCUS_DISTANCE_CALIBRATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_FOCUS_DISTANCE_CALIBRATION"/>
+    <hyperlink ref="B31" r:id="rId52" location="LENS_INFO_AVAILABLE_OPTICAL_STABILIZATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_AVAILABLE_OPTICAL_STABILIZATION"/>
+    <hyperlink ref="B30" r:id="rId53" location="LENS_INFO_AVAILABLE_FOCAL_LENGTHS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_AVAILABLE_FOCAL_LENGTHS"/>
+    <hyperlink ref="B29" r:id="rId54" location="LENS_INFO_AVAILABLE_FILTER_DENSITIES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_AVAILABLE_FILTER_DENSITIES"/>
+    <hyperlink ref="B28" r:id="rId55" location="LENS_INFO_AVAILABLE_APERTURES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_INFO_AVAILABLE_APERTURES"/>
+    <hyperlink ref="B27" r:id="rId56" location="LENS_FACING" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - LENS_FACING"/>
+    <hyperlink ref="B26" r:id="rId57" location="JPEG_AVAILABLE_THUMBNAIL_SIZES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - JPEG_AVAILABLE_THUMBNAIL_SIZES"/>
+    <hyperlink ref="B25" r:id="rId58" location="INFO_SUPPORTED_HARDWARE_LEVEL" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - INFO_SUPPORTED_HARDWARE_LEVEL"/>
+    <hyperlink ref="B24" r:id="rId59" location="HOT_PIXEL_AVAILABLE_HOT_PIXEL_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - HOT_PIXEL_AVAILABLE_HOT_PIXEL_MODES"/>
+    <hyperlink ref="B23" r:id="rId60" location="FLASH_INFO_AVAILABLE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - FLASH_INFO_AVAILABLE"/>
+    <hyperlink ref="B22" r:id="rId61" location="EDGE_AVAILABLE_EDGE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - EDGE_AVAILABLE_EDGE_MODES"/>
+    <hyperlink ref="B21" r:id="rId62" location="DEPTH_DEPTH_IS_EXCLUSIVE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - DEPTH_DEPTH_IS_EXCLUSIVE"/>
+    <hyperlink ref="B20" r:id="rId63" location="CONTROL_POST_RAW_SENSITIVITY_BOOST_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_POST_RAW_SENSITIVITY_BOOST_RANGE"/>
+    <hyperlink ref="B19" r:id="rId64" location="CONTROL_MAX_REGIONS_AWB" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_MAX_REGIONS_AWB"/>
+    <hyperlink ref="B18" r:id="rId65" location="CONTROL_MAX_REGIONS_AF" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_MAX_REGIONS_AF"/>
+    <hyperlink ref="B17" r:id="rId66" location="CONTROL_MAX_REGIONS_AE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_MAX_REGIONS_AE"/>
+    <hyperlink ref="B16" r:id="rId67" location="CONTROL_AWB_LOCK_AVAILABLE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AWB_LOCK_AVAILABLE"/>
+    <hyperlink ref="B15" r:id="rId68" location="CONTROL_AWB_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AWB_AVAILABLE_MODES"/>
+    <hyperlink ref="B14" r:id="rId69" location="CONTROL_AVAILABLE_VIDEO_STABILIZATION_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AVAILABLE_VIDEO_STABILIZATION_MODES"/>
+    <hyperlink ref="B13" r:id="rId70" location="CONTROL_AVAILABLE_SCENE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AVAILABLE_SCENE_MODES"/>
+    <hyperlink ref="B12" r:id="rId71" location="CONTROL_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AVAILABLE_MODES"/>
+    <hyperlink ref="B11" r:id="rId72" location="CONTROL_AVAILABLE_EFFECTS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AVAILABLE_EFFECTS"/>
+    <hyperlink ref="B10" r:id="rId73" location="CONTROL_AF_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AF_AVAILABLE_MODES"/>
+    <hyperlink ref="B9" r:id="rId74" location="CONTROL_AE_LOCK_AVAILABLE"/>
+    <hyperlink ref="B8" r:id="rId75" location="CONTROL_AE_COMPENSATION_STEP" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_COMPENSATION_STEP"/>
+    <hyperlink ref="B7" r:id="rId76" location="CONTROL_AE_COMPENSATION_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_COMPENSATION_RANGE"/>
+    <hyperlink ref="B6" r:id="rId77" location="CONTROL_AE_AVAILABLE_TARGET_FPS_RANGES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_AVAILABLE_TARGET_FPS_RANGES"/>
+    <hyperlink ref="B5" r:id="rId78" location="CONTROL_AE_AVAILABLE_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_AVAILABLE_MODES"/>
+    <hyperlink ref="B4" r:id="rId79" location="CONTROL_AE_AVAILABLE_ANTIBANDING_MODES" display="https://developer.android.google.cn/reference/android/hardware/camera2/CameraCharacteristics.html - CONTROL_AE_AVAILABLE_ANTIBANDING_MODES"/>
+    <hyperlink ref="B3" r:id="rId80" location="COLOR_CORRECTION_AVAILABLE_ABERRATION_MODES"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId81"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B25" sqref="B2:B25"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.09765625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.09765625" customWidth="1"/>
+    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="145.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:3" ht="45" customHeight="1">
+      <c r="A1" s="122" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+    </row>
+    <row r="2" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A2" s="132" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="126" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="127" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="129" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="124" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>556</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.399999999999999">
-      <c r="A2" s="120" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="A14" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
+      <c r="A18" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="124" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
+      <c r="A19" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="124" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5">
+      <c r="A20" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="124" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="121" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.399999999999999">
-      <c r="A3" s="120" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>558</v>
-      </c>
-      <c r="C3" s="121" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34.799999999999997">
-      <c r="A4" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>559</v>
-      </c>
-      <c r="C4" s="121" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34.799999999999997">
-      <c r="A5" s="120" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
+      <c r="A21" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5">
+      <c r="A22" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5">
+      <c r="A23" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
+      <c r="A24" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
+      <c r="A25" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="124" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5">
+      <c r="A26" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5">
+      <c r="A27" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="124" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5">
+      <c r="A28" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>560</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
-      <c r="A6" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="121" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999">
-      <c r="A7" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="121" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999">
-      <c r="A8" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="121" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.399999999999999">
-      <c r="A9" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="121" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>561</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.399999999999999">
-      <c r="A11" s="120" t="s">
-        <v>562</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="121" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34.799999999999997">
-      <c r="A12" s="120" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.399999999999999">
-      <c r="A13" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="121" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.399999999999999">
-      <c r="A14" s="120" t="s">
-        <v>562</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="121" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.399999999999999">
-      <c r="A15" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>563</v>
-      </c>
-      <c r="C15" s="121" t="s">
+      <c r="B28" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" s="124"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5">
+      <c r="A29" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5">
+      <c r="A30" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" s="124" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
+      <c r="A31" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
+      <c r="A32" s="53" t="s">
+        <v>587</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C32" s="124" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
+      <c r="A33" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C34" s="124" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5">
+      <c r="A35" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5">
+      <c r="A36" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
+      <c r="A37" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="124" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5">
+      <c r="A38" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="124" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5">
+      <c r="A39" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="124" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5">
+      <c r="A40" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" s="124" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5">
+      <c r="A41" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="124" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5">
+      <c r="A42" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="124" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5">
+      <c r="A43" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43" s="124" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5">
+      <c r="A44" s="53" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C44" s="124" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5">
+      <c r="A45" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="124" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5">
+      <c r="A46" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="124" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5">
+      <c r="A47" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="124" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5">
+      <c r="A48" s="53" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.399999999999999">
-      <c r="A16" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="121" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34.799999999999997">
-      <c r="A17" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="121" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999">
-      <c r="A18" s="120" t="s">
-        <v>562</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="121" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34.799999999999997">
-      <c r="A19" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>564</v>
-      </c>
-      <c r="C19" s="121" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.399999999999999">
-      <c r="A20" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="121" t="s">
+      <c r="B48" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C48" s="124" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5">
+      <c r="A49" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="124" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5">
+      <c r="A50" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="124" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5">
+      <c r="A51" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5">
+      <c r="A52" s="53" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8">
-      <c r="A21" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>565</v>
-      </c>
-      <c r="C21" s="58" t="s">
+      <c r="B52" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="124" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5">
+      <c r="A53" s="53" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.399999999999999">
-      <c r="A22" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="121" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.399999999999999">
-      <c r="A23" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="121" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.399999999999999">
-      <c r="A24" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="121" t="s">
+      <c r="B53" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="124" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5">
+      <c r="A54" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C54" s="124" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="49.5">
+      <c r="A55" s="53" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.399999999999999">
-      <c r="A25" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="121" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="120" t="s">
-        <v>566</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.399999999999999">
-      <c r="A27" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="121" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.399999999999999">
-      <c r="A28" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="C28" s="121" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.399999999999999">
-      <c r="A29" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="121" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.399999999999999">
-      <c r="A30" s="120" t="s">
-        <v>569</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>570</v>
-      </c>
-      <c r="C30" s="121" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.399999999999999">
-      <c r="A31" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>571</v>
-      </c>
-      <c r="C31" s="121" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.399999999999999">
-      <c r="A32" s="120" t="s">
+      <c r="B55" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="C55" s="124" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5">
+      <c r="A56" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>572</v>
-      </c>
-      <c r="C32" s="121" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.399999999999999">
-      <c r="A33" s="120" t="s">
-        <v>457</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>573</v>
-      </c>
-      <c r="C33" s="121" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.399999999999999">
-      <c r="A34" s="120" t="s">
-        <v>481</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="121" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.399999999999999">
-      <c r="A35" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="121" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.399999999999999">
-      <c r="A36" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="121" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.399999999999999">
-      <c r="A37" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="121" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.399999999999999">
-      <c r="A38" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>574</v>
-      </c>
-      <c r="C38" s="121" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.399999999999999">
-      <c r="A39" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.399999999999999">
-      <c r="A40" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B40" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="121" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34.799999999999997">
-      <c r="A41" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>575</v>
-      </c>
-      <c r="C41" s="121" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.399999999999999">
-      <c r="A42" s="120" t="s">
-        <v>471</v>
-      </c>
-      <c r="B42" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="C42" s="121" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.399999999999999">
-      <c r="A43" s="120" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="16.5">
+      <c r="A57" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="B43" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" s="121" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.399999999999999">
-      <c r="A44" s="120" t="s">
-        <v>477</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="121" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.399999999999999">
-      <c r="A45" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B45" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="121" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8">
-      <c r="A46" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>576</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.399999999999999">
-      <c r="A47" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="121" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.399999999999999">
-      <c r="A48" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B48" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="C48" s="121" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17.399999999999999">
-      <c r="A49" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B49" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="121" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.399999999999999">
-      <c r="A50" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B50" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C50" s="121" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17.399999999999999">
-      <c r="A51" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B51" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="C51" s="121" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="120" t="s">
-        <v>577</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="57.6">
-      <c r="A53" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17.399999999999999">
-      <c r="A54" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="C54" s="121" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.8">
-      <c r="A55" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="B55" s="58" t="s">
-        <v>579</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="120"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" ht="17.399999999999999">
-      <c r="A57" s="120"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="121"/>
+      <c r="C57" s="124" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" s="53"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="125"/>
+    </row>
+    <row r="59" spans="1:3" ht="16.5">
+      <c r="A59" s="53"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="124"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A3:C57">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="BLACK_LEVEL_LOCK" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - BLACK_LEVEL_LOCK"/>
-    <hyperlink ref="B2" r:id="rId2" location="COLOR_CORRECTION_ABERRATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_ABERRATION_MODE"/>
-    <hyperlink ref="B3" r:id="rId3" location="COLOR_CORRECTION_GAINS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_GAINS"/>
-    <hyperlink ref="B4" r:id="rId4" location="COLOR_CORRECTION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_MODE"/>
-    <hyperlink ref="B5" r:id="rId5" location="COLOR_CORRECTION_TRANSFORM" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_TRANSFORM"/>
-    <hyperlink ref="B6" r:id="rId6" location="CONTROL_AE_ANTIBANDING_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_ANTIBANDING_MODE"/>
-    <hyperlink ref="B7" r:id="rId7" location="CONTROL_AE_EXPOSURE_COMPENSATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_EXPOSURE_COMPENSATION"/>
-    <hyperlink ref="B8" r:id="rId8" location="CONTROL_AE_LOCK" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_LOCK"/>
-    <hyperlink ref="B9" r:id="rId9" location="CONTROL_AE_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_MODE"/>
-    <hyperlink ref="B10" r:id="rId10" location="CONTROL_AE_PRECAPTURE_TRIGGER" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_PRECAPTURE_TRIGGER"/>
-    <hyperlink ref="B11" r:id="rId11" location="CONTROL_AE_REGIONS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_REGIONS"/>
-    <hyperlink ref="B12" r:id="rId12" location="CONTROL_AE_TARGET_FPS_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_TARGET_FPS_RANGE"/>
-    <hyperlink ref="B13" r:id="rId13" location="CONTROL_AF_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AF_MODE"/>
-    <hyperlink ref="B14" r:id="rId14" location="CONTROL_AF_REGIONS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AF_REGIONS"/>
-    <hyperlink ref="B15" r:id="rId15" location="CONTROL_AF_TRIGGER" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AF_TRIGGER"/>
-    <hyperlink ref="B16" r:id="rId16" location="CONTROL_AWB_LOCK" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AWB_LOCK"/>
-    <hyperlink ref="B17" r:id="rId17" location="CONTROL_AWB_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AWB_MODE"/>
-    <hyperlink ref="B18" r:id="rId18" location="CONTROL_AWB_REGIONS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AWB_REGIONS"/>
-    <hyperlink ref="B19" r:id="rId19" location="CONTROL_CAPTURE_INTENT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_CAPTURE_INTENT"/>
-    <hyperlink ref="B20" r:id="rId20" location="CONTROL_EFFECT_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_EFFECT_MODE"/>
-    <hyperlink ref="B21" r:id="rId21" location="CONTROL_ENABLE_ZSL" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_ENABLE_ZSL"/>
-    <hyperlink ref="C21" r:id="rId22" location="CONTROL_CAPTURE_INTENT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_CAPTURE_INTENT"/>
-    <hyperlink ref="B22" r:id="rId23" location="CONTROL_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_MODE"/>
-    <hyperlink ref="B23" r:id="rId24" location="CONTROL_POST_RAW_SENSITIVITY_BOOST" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_POST_RAW_SENSITIVITY_BOOST"/>
-    <hyperlink ref="B24" r:id="rId25" location="CONTROL_SCENE_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_SCENE_MODE"/>
-    <hyperlink ref="B25" r:id="rId26" location="CONTROL_VIDEO_STABILIZATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_VIDEO_STABILIZATION_MODE"/>
-    <hyperlink ref="B26" r:id="rId27" location="CREATOR" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CREATOR"/>
-    <hyperlink ref="B27" r:id="rId28" location="EDGE_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - EDGE_MODE"/>
-    <hyperlink ref="B28" r:id="rId29" location="FLASH_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - FLASH_MODE"/>
-    <hyperlink ref="B29" r:id="rId30" location="HOT_PIXEL_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - HOT_PIXEL_MODE"/>
-    <hyperlink ref="B30" r:id="rId31" location="JPEG_GPS_LOCATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_GPS_LOCATION"/>
-    <hyperlink ref="B31" r:id="rId32" location="JPEG_ORIENTATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_ORIENTATION"/>
-    <hyperlink ref="B32" r:id="rId33" location="JPEG_QUALITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_QUALITY"/>
-    <hyperlink ref="B33" r:id="rId34" location="JPEG_THUMBNAIL_QUALITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_THUMBNAIL_QUALITY"/>
-    <hyperlink ref="B34" r:id="rId35" location="JPEG_THUMBNAIL_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_THUMBNAIL_SIZE"/>
-    <hyperlink ref="B35" r:id="rId36" location="LENS_APERTURE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_APERTURE"/>
-    <hyperlink ref="B36" r:id="rId37" location="LENS_FILTER_DENSITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_FILTER_DENSITY"/>
-    <hyperlink ref="B37" r:id="rId38" location="LENS_FOCAL_LENGTH" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_FOCAL_LENGTH"/>
-    <hyperlink ref="B38" r:id="rId39" location="LENS_FOCUS_DISTANCE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_FOCUS_DISTANCE"/>
-    <hyperlink ref="B39" r:id="rId40" location="LENS_OPTICAL_STABILIZATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_OPTICAL_STABILIZATION_MODE"/>
-    <hyperlink ref="B40" r:id="rId41" location="NOISE_REDUCTION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - NOISE_REDUCTION_MODE"/>
-    <hyperlink ref="B41" r:id="rId42" location="REPROCESS_EFFECTIVE_EXPOSURE_FACTOR" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - REPROCESS_EFFECTIVE_EXPOSURE_FACTOR"/>
-    <hyperlink ref="B42" r:id="rId43" location="SCALER_CROP_REGION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SCALER_CROP_REGION"/>
-    <hyperlink ref="B43" r:id="rId44" location="SENSOR_EXPOSURE_TIME" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_EXPOSURE_TIME"/>
-    <hyperlink ref="B44" r:id="rId45" location="SENSOR_FRAME_DURATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_FRAME_DURATION"/>
-    <hyperlink ref="B45" r:id="rId46" location="SENSOR_SENSITIVITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_SENSITIVITY"/>
-    <hyperlink ref="A46" r:id="rId47" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.Key.html"/>
-    <hyperlink ref="B46" r:id="rId48" location="SENSOR_TEST_PATTERN_DATA" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_TEST_PATTERN_DATA"/>
-    <hyperlink ref="C46" r:id="rId49" location="SENSOR_TEST_PATTERN_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_TEST_PATTERN_MODE"/>
-    <hyperlink ref="B47" r:id="rId50" location="SENSOR_TEST_PATTERN_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_TEST_PATTERN_MODE"/>
-    <hyperlink ref="B48" r:id="rId51" location="SHADING_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SHADING_MODE"/>
-    <hyperlink ref="B49" r:id="rId52" location="STATISTICS_FACE_DETECT_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_FACE_DETECT_MODE"/>
-    <hyperlink ref="B50" r:id="rId53" location="STATISTICS_HOT_PIXEL_MAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_HOT_PIXEL_MAP_MODE"/>
-    <hyperlink ref="B51" r:id="rId54" location="STATISTICS_LENS_SHADING_MAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_LENS_SHADING_MAP_MODE"/>
-    <hyperlink ref="B52" r:id="rId55" location="TONEMAP_CURVE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_CURVE"/>
-    <hyperlink ref="C52" r:id="rId56" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
-    <hyperlink ref="B53" r:id="rId57" location="TONEMAP_GAMMA" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_GAMMA"/>
-    <hyperlink ref="C53" r:id="rId58" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
-    <hyperlink ref="B54" r:id="rId59" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
-    <hyperlink ref="B55" r:id="rId60" location="TONEMAP_PRESET_CURVE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_PRESET_CURVE"/>
-    <hyperlink ref="C55" r:id="rId61" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
+    <hyperlink ref="B3" r:id="rId1" location="BLACK_LEVEL_LOCK" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - BLACK_LEVEL_LOCK"/>
+    <hyperlink ref="B4" r:id="rId2" location="COLOR_CORRECTION_ABERRATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_ABERRATION_MODE"/>
+    <hyperlink ref="B5" r:id="rId3" location="COLOR_CORRECTION_GAINS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_GAINS"/>
+    <hyperlink ref="B6" r:id="rId4" location="COLOR_CORRECTION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_MODE"/>
+    <hyperlink ref="B7" r:id="rId5" location="COLOR_CORRECTION_TRANSFORM" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - COLOR_CORRECTION_TRANSFORM"/>
+    <hyperlink ref="B8" r:id="rId6" location="CONTROL_AE_ANTIBANDING_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_ANTIBANDING_MODE"/>
+    <hyperlink ref="B9" r:id="rId7" location="CONTROL_AE_EXPOSURE_COMPENSATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_EXPOSURE_COMPENSATION"/>
+    <hyperlink ref="B10" r:id="rId8" location="CONTROL_AE_LOCK" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_LOCK"/>
+    <hyperlink ref="B11" r:id="rId9" location="CONTROL_AE_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_MODE"/>
+    <hyperlink ref="B12" r:id="rId10" location="CONTROL_AE_PRECAPTURE_TRIGGER" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_PRECAPTURE_TRIGGER"/>
+    <hyperlink ref="B13" r:id="rId11" location="CONTROL_AE_REGIONS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_REGIONS"/>
+    <hyperlink ref="B14" r:id="rId12" location="CONTROL_AE_TARGET_FPS_RANGE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AE_TARGET_FPS_RANGE"/>
+    <hyperlink ref="B15" r:id="rId13" location="CONTROL_AF_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AF_MODE"/>
+    <hyperlink ref="B16" r:id="rId14" location="CONTROL_AF_REGIONS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AF_REGIONS"/>
+    <hyperlink ref="B17" r:id="rId15" location="CONTROL_AF_TRIGGER" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AF_TRIGGER"/>
+    <hyperlink ref="B18" r:id="rId16" location="CONTROL_AWB_LOCK" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AWB_LOCK"/>
+    <hyperlink ref="B19" r:id="rId17" location="CONTROL_AWB_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AWB_MODE"/>
+    <hyperlink ref="B20" r:id="rId18" location="CONTROL_AWB_REGIONS" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_AWB_REGIONS"/>
+    <hyperlink ref="B21" r:id="rId19" location="CONTROL_CAPTURE_INTENT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_CAPTURE_INTENT"/>
+    <hyperlink ref="B22" r:id="rId20" location="CONTROL_EFFECT_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_EFFECT_MODE"/>
+    <hyperlink ref="B23" r:id="rId21" location="CONTROL_ENABLE_ZSL" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_ENABLE_ZSL"/>
+    <hyperlink ref="C23" r:id="rId22" location="CONTROL_CAPTURE_INTENT" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_CAPTURE_INTENT"/>
+    <hyperlink ref="B24" r:id="rId23" location="CONTROL_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_MODE"/>
+    <hyperlink ref="B25" r:id="rId24" location="CONTROL_POST_RAW_SENSITIVITY_BOOST" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_POST_RAW_SENSITIVITY_BOOST"/>
+    <hyperlink ref="B26" r:id="rId25" location="CONTROL_SCENE_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_SCENE_MODE"/>
+    <hyperlink ref="B27" r:id="rId26" location="CONTROL_VIDEO_STABILIZATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CONTROL_VIDEO_STABILIZATION_MODE"/>
+    <hyperlink ref="B28" r:id="rId27" location="CREATOR" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - CREATOR"/>
+    <hyperlink ref="B29" r:id="rId28" location="EDGE_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - EDGE_MODE"/>
+    <hyperlink ref="B30" r:id="rId29" location="FLASH_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - FLASH_MODE"/>
+    <hyperlink ref="B31" r:id="rId30" location="HOT_PIXEL_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - HOT_PIXEL_MODE"/>
+    <hyperlink ref="B32" r:id="rId31" location="JPEG_GPS_LOCATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_GPS_LOCATION"/>
+    <hyperlink ref="B33" r:id="rId32" location="JPEG_ORIENTATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_ORIENTATION"/>
+    <hyperlink ref="B34" r:id="rId33" location="JPEG_QUALITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_QUALITY"/>
+    <hyperlink ref="B35" r:id="rId34" location="JPEG_THUMBNAIL_QUALITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_THUMBNAIL_QUALITY"/>
+    <hyperlink ref="B36" r:id="rId35" location="JPEG_THUMBNAIL_SIZE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - JPEG_THUMBNAIL_SIZE"/>
+    <hyperlink ref="B37" r:id="rId36" location="LENS_APERTURE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_APERTURE"/>
+    <hyperlink ref="B38" r:id="rId37" location="LENS_FILTER_DENSITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_FILTER_DENSITY"/>
+    <hyperlink ref="B39" r:id="rId38" location="LENS_FOCAL_LENGTH" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_FOCAL_LENGTH"/>
+    <hyperlink ref="B40" r:id="rId39" location="LENS_FOCUS_DISTANCE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_FOCUS_DISTANCE"/>
+    <hyperlink ref="B41" r:id="rId40" location="LENS_OPTICAL_STABILIZATION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - LENS_OPTICAL_STABILIZATION_MODE"/>
+    <hyperlink ref="B42" r:id="rId41" location="NOISE_REDUCTION_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - NOISE_REDUCTION_MODE"/>
+    <hyperlink ref="B43" r:id="rId42" location="REPROCESS_EFFECTIVE_EXPOSURE_FACTOR" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - REPROCESS_EFFECTIVE_EXPOSURE_FACTOR"/>
+    <hyperlink ref="B44" r:id="rId43" location="SCALER_CROP_REGION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SCALER_CROP_REGION"/>
+    <hyperlink ref="B45" r:id="rId44" location="SENSOR_EXPOSURE_TIME" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_EXPOSURE_TIME"/>
+    <hyperlink ref="B46" r:id="rId45" location="SENSOR_FRAME_DURATION" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_FRAME_DURATION"/>
+    <hyperlink ref="B47" r:id="rId46" location="SENSOR_SENSITIVITY" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_SENSITIVITY"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.Key.html"/>
+    <hyperlink ref="B48" r:id="rId48" location="SENSOR_TEST_PATTERN_DATA" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_TEST_PATTERN_DATA"/>
+    <hyperlink ref="C48" r:id="rId49" location="SENSOR_TEST_PATTERN_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_TEST_PATTERN_MODE"/>
+    <hyperlink ref="B49" r:id="rId50" location="SENSOR_TEST_PATTERN_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SENSOR_TEST_PATTERN_MODE"/>
+    <hyperlink ref="B50" r:id="rId51" location="SHADING_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - SHADING_MODE"/>
+    <hyperlink ref="B51" r:id="rId52" location="STATISTICS_FACE_DETECT_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_FACE_DETECT_MODE"/>
+    <hyperlink ref="B52" r:id="rId53" location="STATISTICS_HOT_PIXEL_MAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_HOT_PIXEL_MAP_MODE"/>
+    <hyperlink ref="B53" r:id="rId54" location="STATISTICS_LENS_SHADING_MAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - STATISTICS_LENS_SHADING_MAP_MODE"/>
+    <hyperlink ref="B54" r:id="rId55" location="TONEMAP_CURVE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_CURVE"/>
+    <hyperlink ref="C54" r:id="rId56" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
+    <hyperlink ref="B55" r:id="rId57" location="TONEMAP_GAMMA" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_GAMMA"/>
+    <hyperlink ref="C55" r:id="rId58" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
+    <hyperlink ref="B56" r:id="rId59" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
+    <hyperlink ref="B57" r:id="rId60" location="TONEMAP_PRESET_CURVE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_PRESET_CURVE"/>
+    <hyperlink ref="C57" r:id="rId61" location="TONEMAP_MODE" display="https://developer.android.google.cn/reference/android/hardware/camera2/CaptureRequest.html - TONEMAP_MODE"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <tableParts count="1">
+    <tablePart r:id="rId63"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8159,134 +8244,134 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.796875" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="111" t="s">
+      <c r="C1" s="28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="111" t="s">
+      <c r="C2" s="28" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="112" t="s">
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="113" t="s">
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="114" t="s">
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="110" t="s">
+      <c r="B11" s="28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="28" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8294,15 +8379,15 @@
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>564</v>
+      <c r="B15" s="28" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="28" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8310,134 +8395,134 @@
       <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="62" t="s">
+      <c r="B17" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="110" t="s">
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="110" t="s">
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="115" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="110" t="s">
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="45" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="31" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="39" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="54" t="s">
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="15">
       <c r="A31" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="15">
       <c r="A32" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" ht="15">
       <c r="A34" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="116" t="s">
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="51" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="110" t="s">
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="45" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="62" t="s">
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="116" t="s">
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="51" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="116" t="s">
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="51" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="29" t="s">
         <v>288</v>
       </c>
     </row>
